--- a/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
+++ b/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -2314,8 +2314,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="39266181"/>
-        <c:axId val="54236832"/>
+        <c:axId val="81583903"/>
+        <c:axId val="14262829"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2642,11 +2642,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39266181"/>
-        <c:axId val="54236832"/>
+        <c:axId val="81583903"/>
+        <c:axId val="14262829"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39266181"/>
+        <c:axId val="81583903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2680,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54236832"/>
+        <c:crossAx val="14262829"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,7 +2688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54236832"/>
+        <c:axId val="14262829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2767,7 +2767,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39266181"/>
+        <c:crossAx val="81583903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2990,8 +2990,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="506259"/>
-        <c:axId val="80111504"/>
+        <c:axId val="1143508"/>
+        <c:axId val="43540127"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3258,11 +3258,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="506259"/>
-        <c:axId val="80111504"/>
+        <c:axId val="1143508"/>
+        <c:axId val="43540127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="506259"/>
+        <c:axId val="1143508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80111504"/>
+        <c:crossAx val="43540127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3304,7 +3304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80111504"/>
+        <c:axId val="43540127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3383,7 +3383,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506259"/>
+        <c:crossAx val="1143508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3606,8 +3606,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="64810751"/>
-        <c:axId val="46547480"/>
+        <c:axId val="92590176"/>
+        <c:axId val="21364692"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3874,11 +3874,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64810751"/>
-        <c:axId val="46547480"/>
+        <c:axId val="92590176"/>
+        <c:axId val="21364692"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64810751"/>
+        <c:axId val="92590176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3912,7 +3912,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46547480"/>
+        <c:crossAx val="21364692"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3920,7 +3920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46547480"/>
+        <c:axId val="21364692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -3999,7 +3999,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64810751"/>
+        <c:crossAx val="92590176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4200,8 +4200,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="44998661"/>
-        <c:axId val="86181157"/>
+        <c:axId val="72975097"/>
+        <c:axId val="5067932"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4420,11 +4420,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44998661"/>
-        <c:axId val="86181157"/>
+        <c:axId val="72975097"/>
+        <c:axId val="5067932"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44998661"/>
+        <c:axId val="72975097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86181157"/>
+        <c:crossAx val="5067932"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4466,7 +4466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86181157"/>
+        <c:axId val="5067932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4545,7 +4545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44998661"/>
+        <c:crossAx val="72975097"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4770,8 +4770,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="10745078"/>
-        <c:axId val="51749005"/>
+        <c:axId val="74736740"/>
+        <c:axId val="8744105"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5038,11 +5038,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="10745078"/>
-        <c:axId val="51749005"/>
+        <c:axId val="74736740"/>
+        <c:axId val="8744105"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10745078"/>
+        <c:axId val="74736740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5076,7 +5076,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51749005"/>
+        <c:crossAx val="8744105"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5084,7 +5084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51749005"/>
+        <c:axId val="8744105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5163,7 +5163,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10745078"/>
+        <c:crossAx val="74736740"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5388,8 +5388,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="45650911"/>
-        <c:axId val="61313102"/>
+        <c:axId val="17447771"/>
+        <c:axId val="42943902"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5656,11 +5656,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45650911"/>
-        <c:axId val="61313102"/>
+        <c:axId val="17447771"/>
+        <c:axId val="42943902"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45650911"/>
+        <c:axId val="17447771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5694,7 +5694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61313102"/>
+        <c:crossAx val="42943902"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5702,7 +5702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61313102"/>
+        <c:axId val="42943902"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -5781,7 +5781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45650911"/>
+        <c:crossAx val="17447771"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5940,9 +5940,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint7'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$5:$O$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Dia 0</c:v>
                 </c:pt>
@@ -5966,16 +5966,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$44:$K$44</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5998,6 +6010,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6006,8 +6030,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="18409481"/>
-        <c:axId val="11547008"/>
+        <c:axId val="27270478"/>
+        <c:axId val="17840375"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6077,9 +6101,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint7'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$5:$O$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Dia 0</c:v>
                 </c:pt>
@@ -6103,16 +6127,28 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$45:$K$45</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
                 </c:pt>
@@ -6135,6 +6171,18 @@
                   <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>63.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6201,9 +6249,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart Sprint7'!$D$5:$K$5</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$5:$O$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Dia 0</c:v>
                 </c:pt>
@@ -6227,38 +6275,62 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$46:$K$46</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15.6</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.3714285714286</c:v>
+                  <c:v>62.7272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.1428571428571</c:v>
+                  <c:v>56.4545454545455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.91428571428572</c:v>
+                  <c:v>50.1818181818182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.68571428571429</c:v>
+                  <c:v>43.9090909090909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.45714285714286</c:v>
+                  <c:v>37.6363636363636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.22857142857143</c:v>
+                  <c:v>31.3636363636364</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>25.0909090909091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.8181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5454545454545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6274,11 +6346,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18409481"/>
-        <c:axId val="11547008"/>
+        <c:axId val="27270478"/>
+        <c:axId val="17840375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18409481"/>
+        <c:axId val="27270478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6312,7 +6384,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11547008"/>
+        <c:crossAx val="17840375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6320,10 +6392,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11547008"/>
+        <c:axId val="17840375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6399,8 +6471,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18409481"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="27270478"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
         <c:minorUnit val="1.33333333333333"/>
@@ -6468,18 +6540,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>662400</xdr:colOff>
+      <xdr:colOff>662040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3403800" y="2685960"/>
-        <a:ext cx="9639360" cy="4885560"/>
+        <a:ext cx="9639000" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6503,18 +6575,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1155240" y="3543120"/>
-        <a:ext cx="9640080" cy="4885560"/>
+        <a:ext cx="9639720" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6538,18 +6610,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="7705800"/>
-        <a:ext cx="9639360" cy="4885560"/>
+        <a:ext cx="9639000" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6573,18 +6645,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846960" y="10025640"/>
-        <a:ext cx="9639000" cy="4885560"/>
+        <a:ext cx="9638640" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6608,18 +6680,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="3362400"/>
-        <a:ext cx="9639360" cy="4885560"/>
+        <a:ext cx="9639000" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6643,18 +6715,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>890280</xdr:colOff>
+      <xdr:colOff>889920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2969280" y="5652360"/>
-        <a:ext cx="9638640" cy="4885560"/>
+        <a:ext cx="9638280" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6678,18 +6750,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="15381000"/>
-        <a:ext cx="9639360" cy="4885560"/>
+        <a:ext cx="9639000" cy="4885200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6900,8 +6972,8 @@
   </sheetPr>
   <dimension ref="B1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8414,7 +8486,7 @@
   </sheetPr>
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9847,7 +9919,7 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -12271,7 +12343,7 @@
   </sheetPr>
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15027,7 +15099,7 @@
   </sheetPr>
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -16549,7 +16621,7 @@
   </sheetPr>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -17712,8 +17784,8 @@
   </sheetPr>
   <dimension ref="B1:T979"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T28" activeCellId="0" sqref="T28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18244,7 +18316,7 @@
         <f aca="false">SUM(E16:K16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18278,7 +18350,7 @@
         <f aca="false">SUM(E17:K17)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -18312,7 +18384,7 @@
         <f aca="false">SUM(E18:K18)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18346,7 +18418,7 @@
         <f aca="false">SUM(E19:K19)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18452,7 +18524,7 @@
         <f aca="false">SUM(E22:K22)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18486,7 +18558,7 @@
         <f aca="false">SUM(E23:K23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="0" t="s">
+      <c r="S23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -18520,7 +18592,7 @@
         <f aca="false">SUM(E24:K24)</f>
         <v>0</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18554,7 +18626,7 @@
         <f aca="false">SUM(E25:K25)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18590,7 +18662,7 @@
         <f aca="false">SUM(E26:K26)</f>
         <v>0.5</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18626,7 +18698,7 @@
         <f aca="false">SUM(E27:K27)</f>
         <v>0.5</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="S27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -18728,7 +18800,7 @@
         <f aca="false">SUM(E30:K30)</f>
         <v>0</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18762,7 +18834,7 @@
         <f aca="false">SUM(E31:K31)</f>
         <v>0</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -18796,7 +18868,7 @@
         <f aca="false">SUM(E32:K32)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18830,7 +18902,7 @@
         <f aca="false">SUM(E33:K33)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18932,7 +19004,7 @@
         <f aca="false">SUM(E36:K36)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="0" t="s">
+      <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18966,7 +19038,7 @@
         <f aca="false">SUM(E37:K37)</f>
         <v>0</v>
       </c>
-      <c r="S37" s="0" t="s">
+      <c r="S37" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -19000,7 +19072,7 @@
         <f aca="false">SUM(E38:K38)</f>
         <v>0</v>
       </c>
-      <c r="S38" s="0" t="s">
+      <c r="S38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19034,7 +19106,7 @@
         <f aca="false">SUM(E39:K39)</f>
         <v>0</v>
       </c>
-      <c r="S39" s="0" t="s">
+      <c r="S39" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -19251,50 +19323,51 @@
       </c>
       <c r="C46" s="46"/>
       <c r="D46" s="47" t="n">
-        <v>15.6</v>
+        <f aca="false">D45</f>
+        <v>69</v>
       </c>
       <c r="E46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*1)</f>
-        <v>13.3714285714286</v>
+        <f aca="false">$D$46-($D$46/11*1)</f>
+        <v>62.7272727272727</v>
       </c>
       <c r="F46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*2)</f>
-        <v>11.1428571428571</v>
+        <f aca="false">$D$46-($D$46/11*2)</f>
+        <v>56.4545454545455</v>
       </c>
       <c r="G46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*3)</f>
-        <v>8.91428571428572</v>
+        <f aca="false">$D$46-($D$46/11*3)</f>
+        <v>50.1818181818182</v>
       </c>
       <c r="H46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*4)</f>
-        <v>6.68571428571429</v>
+        <f aca="false">$D$46-($D$46/11*4)</f>
+        <v>43.9090909090909</v>
       </c>
       <c r="I46" s="49" t="n">
-        <f aca="false">$D$46-($D$46/7*5)</f>
-        <v>4.45714285714286</v>
+        <f aca="false">$D$46-($D$46/11*5)</f>
+        <v>37.6363636363636</v>
       </c>
       <c r="J46" s="49" t="n">
-        <f aca="false">$D$46-($D$46/7*6)</f>
-        <v>2.22857142857143</v>
+        <f aca="false">$D$46-($D$46/11*6)</f>
+        <v>31.3636363636364</v>
       </c>
       <c r="K46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*7)</f>
-        <v>0</v>
+        <f aca="false">$D$46-($D$46/11*7)</f>
+        <v>25.0909090909091</v>
       </c>
       <c r="L46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*7)</f>
-        <v>0</v>
+        <f aca="false">$D$46-($D$46/11*8)</f>
+        <v>18.8181818181818</v>
       </c>
       <c r="M46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*7)</f>
-        <v>0</v>
+        <f aca="false">$D$46-($D$46/11*9)</f>
+        <v>12.5454545454545</v>
       </c>
       <c r="N46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*7)</f>
-        <v>0</v>
+        <f aca="false">$D$46-($D$46/11*10)</f>
+        <v>6.27272727272727</v>
       </c>
       <c r="O46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/7*7)</f>
+        <f aca="false">$D$46-($D$46/11*11)</f>
         <v>0</v>
       </c>
     </row>
@@ -20279,12 +20352,12 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
   </mergeCells>
-  <conditionalFormatting sqref="P6:P12">
+  <conditionalFormatting sqref="P6:P12 P13:P39 P40:P43">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q12">
+  <conditionalFormatting sqref="P6:Q12 P13:Q39 P40:Q43">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
@@ -20295,7 +20368,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R12 R14:R39">
+  <conditionalFormatting sqref="R6:R12 R14:R39 R13 R40:R43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20305,62 +20378,6 @@
         <color rgb="FFFFD666"/>
         <color rgb="FF00FF00"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P39">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"DONE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:Q39">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"NOT ENOUGH WORK YET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>"ERROR TO MUCH WORK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>"NOT STARTED"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="percentile" val="0.25"/>
-        <cfvo type="formula" val="0.5"/>
-        <color rgb="FF980000"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R40:R43">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="percentile" val="0.25"/>
-        <cfvo type="formula" val="0.5"/>
-        <color rgb="FF980000"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FF00FF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:P43">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"DONE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:Q43">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"NOT ENOUGH WORK YET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>"ERROR TO MUCH WORK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
+++ b/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
   <si>
     <t xml:space="preserve">Sprint 1 Burndown Chart</t>
   </si>
@@ -114,7 +114,7 @@
         <b val="true"/>
         <i val="true"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -125,7 +125,7 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -397,31 +397,6 @@
     <t xml:space="preserve">T22.6: Develop the Use Case Diagram of the chosen system part.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Burndown </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ideal</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint 5 Burndown Chart</t>
   </si>
   <si>
@@ -590,7 +565,7 @@
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,17 +612,17 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -678,30 +653,7 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1366,7 +1318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="146">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1439,7 +1391,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1551,7 +1503,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1671,7 +1623,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1701,10 +1653,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1791,7 +1739,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1927,7 +1875,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1951,11 +1899,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1970,6 +1914,13 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
@@ -1977,6 +1928,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1984,6 +1942,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1991,6 +1956,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -1998,6 +1970,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
@@ -2005,6 +1984,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2012,6 +1998,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2019,6 +2012,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -2026,6 +2026,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
@@ -2033,6 +2040,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2040,6 +2054,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -2047,6 +2068,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -2107,11 +2135,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF1A1A1A"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF1A1A1A"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2314,8 +2342,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="81583903"/>
-        <c:axId val="14262829"/>
+        <c:axId val="81805202"/>
+        <c:axId val="78483960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2642,11 +2670,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81583903"/>
-        <c:axId val="14262829"/>
+        <c:axId val="81805202"/>
+        <c:axId val="78483960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81583903"/>
+        <c:axId val="81805202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14262829"/>
+        <c:crossAx val="78483960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14262829"/>
+        <c:axId val="78483960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2767,7 +2795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81583903"/>
+        <c:crossAx val="81805202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2990,8 +3018,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1143508"/>
-        <c:axId val="43540127"/>
+        <c:axId val="93984159"/>
+        <c:axId val="77179259"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3258,11 +3286,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="1143508"/>
-        <c:axId val="43540127"/>
+        <c:axId val="93984159"/>
+        <c:axId val="77179259"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1143508"/>
+        <c:axId val="93984159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43540127"/>
+        <c:crossAx val="77179259"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3304,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43540127"/>
+        <c:axId val="77179259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3383,7 +3411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143508"/>
+        <c:crossAx val="93984159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3606,8 +3634,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="92590176"/>
-        <c:axId val="21364692"/>
+        <c:axId val="17263203"/>
+        <c:axId val="9709371"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3874,11 +3902,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92590176"/>
-        <c:axId val="21364692"/>
+        <c:axId val="17263203"/>
+        <c:axId val="9709371"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92590176"/>
+        <c:axId val="17263203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3912,7 +3940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21364692"/>
+        <c:crossAx val="9709371"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3920,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21364692"/>
+        <c:axId val="9709371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -3999,7 +4027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92590176"/>
+        <c:crossAx val="17263203"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4200,8 +4228,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="72975097"/>
-        <c:axId val="5067932"/>
+        <c:axId val="84076830"/>
+        <c:axId val="38060692"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4420,11 +4448,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72975097"/>
-        <c:axId val="5067932"/>
+        <c:axId val="84076830"/>
+        <c:axId val="38060692"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72975097"/>
+        <c:axId val="84076830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +4486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5067932"/>
+        <c:crossAx val="38060692"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4466,7 +4494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5067932"/>
+        <c:axId val="38060692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4545,7 +4573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72975097"/>
+        <c:crossAx val="84076830"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4770,8 +4798,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74736740"/>
-        <c:axId val="8744105"/>
+        <c:axId val="49211707"/>
+        <c:axId val="13972706"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5038,11 +5066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74736740"/>
-        <c:axId val="8744105"/>
+        <c:axId val="49211707"/>
+        <c:axId val="13972706"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74736740"/>
+        <c:axId val="49211707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5076,7 +5104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8744105"/>
+        <c:crossAx val="13972706"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5084,7 +5112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8744105"/>
+        <c:axId val="13972706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5163,7 +5191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74736740"/>
+        <c:crossAx val="49211707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5388,8 +5416,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="17447771"/>
-        <c:axId val="42943902"/>
+        <c:axId val="5163635"/>
+        <c:axId val="28625254"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5656,11 +5684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17447771"/>
-        <c:axId val="42943902"/>
+        <c:axId val="5163635"/>
+        <c:axId val="28625254"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17447771"/>
+        <c:axId val="5163635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5694,7 +5722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42943902"/>
+        <c:crossAx val="28625254"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5702,7 +5730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42943902"/>
+        <c:axId val="28625254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -5781,7 +5809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17447771"/>
+        <c:crossAx val="5163635"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5992,37 +6020,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6030,8 +6058,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="27270478"/>
-        <c:axId val="17840375"/>
+        <c:axId val="422696"/>
+        <c:axId val="7793630"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6150,40 +6178,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>726.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.5</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.5</c:v>
+                  <c:v>716.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.5</c:v>
+                  <c:v>710.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.5</c:v>
+                  <c:v>706.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.5</c:v>
+                  <c:v>701.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.5</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.5</c:v>
+                  <c:v>689.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.5</c:v>
+                  <c:v>681.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.5</c:v>
+                  <c:v>671.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.5</c:v>
+                  <c:v>666.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6298,37 +6326,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.7272727272727</c:v>
+                  <c:v>662.727272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.4545454545455</c:v>
+                  <c:v>596.454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.1818181818182</c:v>
+                  <c:v>530.181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.9090909090909</c:v>
+                  <c:v>463.909090909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.6363636363636</c:v>
+                  <c:v>397.636363636364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.3636363636364</c:v>
+                  <c:v>331.363636363636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.0909090909091</c:v>
+                  <c:v>265.090909090909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.8181818181818</c:v>
+                  <c:v>198.818181818182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.5454545454545</c:v>
+                  <c:v>132.545454545455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.27272727272727</c:v>
+                  <c:v>66.2727272727274</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6346,11 +6374,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27270478"/>
-        <c:axId val="17840375"/>
+        <c:axId val="422696"/>
+        <c:axId val="7793630"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27270478"/>
+        <c:axId val="422696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,7 +6412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17840375"/>
+        <c:crossAx val="7793630"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6392,7 +6420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17840375"/>
+        <c:axId val="7793630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -6471,8 +6499,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27270478"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="422696"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
         <c:minorUnit val="1.33333333333333"/>
@@ -6540,18 +6568,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:colOff>661320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3403800" y="2685960"/>
-        <a:ext cx="9639000" cy="4885200"/>
+        <a:ext cx="9638280" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6575,18 +6603,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="1" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1155240" y="3543120"/>
-        <a:ext cx="9639720" cy="4885200"/>
+        <a:ext cx="9639000" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6610,18 +6638,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>347040</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="7705800"/>
-        <a:ext cx="9639000" cy="4885200"/>
+        <a:ext cx="9638280" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6645,18 +6673,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846960" y="10025640"/>
-        <a:ext cx="9638640" cy="4885200"/>
+        <a:ext cx="9637920" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6680,18 +6708,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>347040</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="3362400"/>
-        <a:ext cx="9639000" cy="4885200"/>
+        <a:ext cx="9638280" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6710,23 +6738,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1687320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>889920</xdr:colOff>
+      <xdr:colOff>889200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2969280" y="5652360"/>
-        <a:ext cx="9638280" cy="4885200"/>
+        <a:off x="2969280" y="5576040"/>
+        <a:ext cx="9637560" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6749,19 +6777,19 @@
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="15381000"/>
-        <a:ext cx="9639000" cy="4885200"/>
+        <a:ext cx="9638280" cy="4884480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6834,16 +6862,16 @@
         <a:srgbClr val="0563c1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -6851,67 +6879,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -6930,35 +6916,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -6972,7 +6934,7 @@
   </sheetPr>
   <dimension ref="B1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -8486,7 +8448,7 @@
   </sheetPr>
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9919,7 +9881,7 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -12343,7 +12305,7 @@
   </sheetPr>
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -12487,10 +12449,10 @@
       <c r="B7" s="75" t="n">
         <v>14.5</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="85" t="n">
+      <c r="D7" s="84" t="n">
         <v>0.25</v>
       </c>
       <c r="E7" s="78" t="n">
@@ -12506,7 +12468,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="80"/>
-      <c r="N7" s="86" t="n">
+      <c r="N7" s="85" t="n">
         <v>0.25</v>
       </c>
       <c r="O7" s="82" t="s">
@@ -12520,10 +12482,10 @@
       <c r="B8" s="75" t="n">
         <v>14.6</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="85" t="n">
+      <c r="D8" s="84" t="n">
         <v>0.1</v>
       </c>
       <c r="E8" s="78" t="n">
@@ -12539,7 +12501,7 @@
         <v>86</v>
       </c>
       <c r="M8" s="80"/>
-      <c r="N8" s="87" t="n">
+      <c r="N8" s="86" t="n">
         <v>0.1</v>
       </c>
       <c r="O8" s="82" t="s">
@@ -12553,7 +12515,7 @@
       <c r="B9" s="75" t="n">
         <v>15.1</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="77" t="n">
@@ -12572,7 +12534,7 @@
         <v>86</v>
       </c>
       <c r="M9" s="80"/>
-      <c r="N9" s="89" t="n">
+      <c r="N9" s="88" t="n">
         <v>0.3</v>
       </c>
       <c r="O9" s="82" t="s">
@@ -12586,10 +12548,10 @@
       <c r="B10" s="75" t="n">
         <v>15.2</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="85" t="n">
+      <c r="D10" s="84" t="n">
         <v>0.05</v>
       </c>
       <c r="E10" s="78" t="n">
@@ -12619,10 +12581,10 @@
       <c r="B11" s="75" t="n">
         <v>15.3</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="85" t="n">
+      <c r="D11" s="84" t="n">
         <v>0.2</v>
       </c>
       <c r="E11" s="78" t="n">
@@ -12638,7 +12600,7 @@
         <v>86</v>
       </c>
       <c r="M11" s="80"/>
-      <c r="N11" s="90" t="n">
+      <c r="N11" s="89" t="n">
         <v>0.2</v>
       </c>
       <c r="O11" s="82" t="s">
@@ -12652,7 +12614,7 @@
       <c r="B12" s="75" t="n">
         <v>15.4</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="77" t="n">
@@ -12671,7 +12633,7 @@
         <v>86</v>
       </c>
       <c r="M12" s="80"/>
-      <c r="N12" s="91" t="n">
+      <c r="N12" s="90" t="n">
         <v>0.4</v>
       </c>
       <c r="O12" s="82" t="s">
@@ -12685,10 +12647,10 @@
       <c r="B13" s="75" t="n">
         <v>15.5</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="85" t="n">
+      <c r="D13" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E13" s="78" t="n">
@@ -12706,7 +12668,7 @@
         <v>86</v>
       </c>
       <c r="M13" s="80"/>
-      <c r="N13" s="92" t="n">
+      <c r="N13" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O13" s="82" t="s">
@@ -12720,10 +12682,10 @@
       <c r="B14" s="75" t="n">
         <v>15.6</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="85" t="n">
+      <c r="D14" s="84" t="n">
         <v>0.15</v>
       </c>
       <c r="E14" s="78" t="n">
@@ -12739,7 +12701,7 @@
         <v>86</v>
       </c>
       <c r="M14" s="80"/>
-      <c r="N14" s="93" t="n">
+      <c r="N14" s="92" t="n">
         <v>0.15</v>
       </c>
       <c r="O14" s="82" t="s">
@@ -12774,7 +12736,7 @@
         <v>86</v>
       </c>
       <c r="M15" s="80"/>
-      <c r="N15" s="86" t="n">
+      <c r="N15" s="85" t="n">
         <v>0.25</v>
       </c>
       <c r="O15" s="82" t="s">
@@ -12791,7 +12753,7 @@
       <c r="C16" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="85" t="n">
+      <c r="D16" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E16" s="78" t="n">
@@ -12813,7 +12775,7 @@
         <v>86</v>
       </c>
       <c r="M16" s="80"/>
-      <c r="N16" s="92" t="n">
+      <c r="N16" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O16" s="82" t="s">
@@ -12830,7 +12792,7 @@
       <c r="C17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="85" t="n">
+      <c r="D17" s="84" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" s="78" t="n">
@@ -12848,7 +12810,7 @@
         <v>86</v>
       </c>
       <c r="M17" s="80"/>
-      <c r="N17" s="86" t="n">
+      <c r="N17" s="85" t="n">
         <v>0.25</v>
       </c>
       <c r="O17" s="82" t="s">
@@ -12862,7 +12824,7 @@
       <c r="B18" s="75" t="n">
         <v>17.4</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="87" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="77" t="n">
@@ -12883,7 +12845,7 @@
         <v>86</v>
       </c>
       <c r="M18" s="80"/>
-      <c r="N18" s="89" t="n">
+      <c r="N18" s="88" t="n">
         <v>0.3</v>
       </c>
       <c r="O18" s="82" t="s">
@@ -12897,10 +12859,10 @@
       <c r="B19" s="75" t="n">
         <v>17.5</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="85" t="n">
+      <c r="D19" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E19" s="78" t="n">
@@ -12922,7 +12884,7 @@
         <v>86</v>
       </c>
       <c r="M19" s="80"/>
-      <c r="N19" s="92" t="n">
+      <c r="N19" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O19" s="82" t="s">
@@ -12936,10 +12898,10 @@
       <c r="B20" s="75" t="n">
         <v>17.6</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="85" t="n">
+      <c r="D20" s="84" t="n">
         <v>0.25</v>
       </c>
       <c r="E20" s="78" t="n">
@@ -12959,7 +12921,7 @@
         <v>86</v>
       </c>
       <c r="M20" s="80"/>
-      <c r="N20" s="86" t="n">
+      <c r="N20" s="85" t="n">
         <v>0.25</v>
       </c>
       <c r="O20" s="82" t="s">
@@ -12973,7 +12935,7 @@
       <c r="B21" s="75" t="n">
         <v>18.1</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="76" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="77" t="n">
@@ -12994,7 +12956,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="80"/>
-      <c r="N21" s="87" t="n">
+      <c r="N21" s="86" t="n">
         <v>0.1</v>
       </c>
       <c r="O21" s="82" t="s">
@@ -13005,13 +12967,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="94" t="n">
+      <c r="B22" s="93" t="n">
         <v>18.2</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="85" t="n">
+      <c r="D22" s="84" t="n">
         <v>0.2</v>
       </c>
       <c r="E22" s="78" t="n">
@@ -13027,7 +12989,7 @@
         <v>86</v>
       </c>
       <c r="M22" s="80"/>
-      <c r="N22" s="90" t="n">
+      <c r="N22" s="89" t="n">
         <v>0.2</v>
       </c>
       <c r="O22" s="82" t="s">
@@ -13041,10 +13003,10 @@
       <c r="B23" s="75" t="n">
         <v>18.3</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="85" t="n">
+      <c r="D23" s="84" t="n">
         <v>0.1</v>
       </c>
       <c r="E23" s="78" t="n">
@@ -13060,7 +13022,7 @@
         <v>86</v>
       </c>
       <c r="M23" s="80"/>
-      <c r="N23" s="87" t="n">
+      <c r="N23" s="86" t="n">
         <v>0.1</v>
       </c>
       <c r="O23" s="82" t="s">
@@ -13071,10 +13033,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="94" t="n">
+      <c r="B24" s="93" t="n">
         <v>18.4</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="77" t="n">
@@ -13095,7 +13057,7 @@
         <v>86</v>
       </c>
       <c r="M24" s="80"/>
-      <c r="N24" s="92" t="n">
+      <c r="N24" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O24" s="82" t="s">
@@ -13109,10 +13071,10 @@
       <c r="B25" s="75" t="n">
         <v>18.5</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="85" t="n">
+      <c r="D25" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E25" s="78" t="n">
@@ -13134,7 +13096,7 @@
         <v>86</v>
       </c>
       <c r="M25" s="80"/>
-      <c r="N25" s="92" t="n">
+      <c r="N25" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O25" s="82" t="s">
@@ -13145,13 +13107,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="94" t="n">
+      <c r="B26" s="93" t="n">
         <v>18.6</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="85" t="n">
+      <c r="D26" s="84" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" s="78" t="n">
@@ -13171,7 +13133,7 @@
         <v>86</v>
       </c>
       <c r="M26" s="80"/>
-      <c r="N26" s="86" t="n">
+      <c r="N26" s="85" t="n">
         <v>0.25</v>
       </c>
       <c r="O26" s="82" t="s">
@@ -13182,13 +13144,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="94" t="n">
+      <c r="B27" s="93" t="n">
         <v>19.1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="85" t="n">
+      <c r="D27" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E27" s="79"/>
@@ -13204,7 +13166,7 @@
         <v>86</v>
       </c>
       <c r="M27" s="80"/>
-      <c r="N27" s="92" t="n">
+      <c r="N27" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O27" s="82" t="s">
@@ -13215,13 +13177,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="94" t="n">
+      <c r="B28" s="93" t="n">
         <v>19.2</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="85" t="n">
+      <c r="D28" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E28" s="79"/>
@@ -13239,7 +13201,7 @@
         <v>86</v>
       </c>
       <c r="M28" s="80"/>
-      <c r="N28" s="92" t="n">
+      <c r="N28" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O28" s="82" t="s">
@@ -13250,13 +13212,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="94" t="n">
+      <c r="B29" s="93" t="n">
         <v>19.3</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="85" t="n">
+      <c r="D29" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E29" s="79"/>
@@ -13274,7 +13236,7 @@
         <v>86</v>
       </c>
       <c r="M29" s="80"/>
-      <c r="N29" s="92" t="n">
+      <c r="N29" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O29" s="82" t="s">
@@ -13285,13 +13247,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="94" t="n">
+      <c r="B30" s="93" t="n">
         <v>19.4</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="85" t="n">
+      <c r="D30" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E30" s="79"/>
@@ -13307,7 +13269,7 @@
         <v>86</v>
       </c>
       <c r="M30" s="80"/>
-      <c r="N30" s="92" t="n">
+      <c r="N30" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O30" s="82" t="s">
@@ -13318,13 +13280,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="94" t="n">
+      <c r="B31" s="93" t="n">
         <v>19.5</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="85" t="n">
+      <c r="D31" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E31" s="79"/>
@@ -13340,7 +13302,7 @@
         <v>86</v>
       </c>
       <c r="M31" s="80"/>
-      <c r="N31" s="92" t="n">
+      <c r="N31" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O31" s="82" t="s">
@@ -13351,13 +13313,13 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="94" t="n">
+      <c r="B32" s="93" t="n">
         <v>19.6</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="85" t="n">
+      <c r="D32" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E32" s="79"/>
@@ -13373,7 +13335,7 @@
         <v>86</v>
       </c>
       <c r="M32" s="80"/>
-      <c r="N32" s="92" t="n">
+      <c r="N32" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O32" s="82" t="s">
@@ -13384,13 +13346,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="94" t="n">
+      <c r="B33" s="93" t="n">
         <v>20.1</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="85" t="n">
+      <c r="D33" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E33" s="79"/>
@@ -13406,7 +13368,7 @@
         <v>86</v>
       </c>
       <c r="M33" s="80"/>
-      <c r="N33" s="92" t="n">
+      <c r="N33" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O33" s="82" t="s">
@@ -13417,13 +13379,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="94" t="n">
+      <c r="B34" s="93" t="n">
         <v>20.2</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="85" t="n">
+      <c r="D34" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E34" s="79"/>
@@ -13439,7 +13401,7 @@
         <v>86</v>
       </c>
       <c r="M34" s="80"/>
-      <c r="N34" s="92" t="n">
+      <c r="N34" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O34" s="82" t="s">
@@ -13450,13 +13412,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="94" t="n">
+      <c r="B35" s="93" t="n">
         <v>20.3</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="85" t="n">
+      <c r="D35" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E35" s="79"/>
@@ -13472,7 +13434,7 @@
         <v>86</v>
       </c>
       <c r="M35" s="80"/>
-      <c r="N35" s="92" t="n">
+      <c r="N35" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O35" s="82" t="s">
@@ -13483,13 +13445,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="94" t="n">
+      <c r="B36" s="93" t="n">
         <v>20.4</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="85" t="n">
+      <c r="D36" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E36" s="79"/>
@@ -13505,7 +13467,7 @@
         <v>86</v>
       </c>
       <c r="M36" s="80"/>
-      <c r="N36" s="92" t="n">
+      <c r="N36" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O36" s="82" t="s">
@@ -13516,13 +13478,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="94" t="n">
+      <c r="B37" s="93" t="n">
         <v>20.5</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="85" t="n">
+      <c r="D37" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E37" s="79"/>
@@ -13538,7 +13500,7 @@
         <v>86</v>
       </c>
       <c r="M37" s="80"/>
-      <c r="N37" s="92" t="n">
+      <c r="N37" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O37" s="82" t="s">
@@ -13549,13 +13511,13 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="94" t="n">
+      <c r="B38" s="93" t="n">
         <v>20.6</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="85" t="n">
+      <c r="D38" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E38" s="79"/>
@@ -13571,7 +13533,7 @@
         <v>86</v>
       </c>
       <c r="M38" s="80"/>
-      <c r="N38" s="92" t="n">
+      <c r="N38" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O38" s="82" t="s">
@@ -13582,13 +13544,13 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="94" t="n">
+      <c r="B39" s="93" t="n">
         <v>21.1</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="85" t="n">
+      <c r="D39" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E39" s="79"/>
@@ -13604,7 +13566,7 @@
         <v>86</v>
       </c>
       <c r="M39" s="80"/>
-      <c r="N39" s="92" t="n">
+      <c r="N39" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O39" s="82" t="s">
@@ -13615,13 +13577,13 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="94" t="n">
+      <c r="B40" s="93" t="n">
         <v>21.2</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="85" t="n">
+      <c r="D40" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E40" s="79"/>
@@ -13639,7 +13601,7 @@
         <v>86</v>
       </c>
       <c r="M40" s="80"/>
-      <c r="N40" s="92" t="n">
+      <c r="N40" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O40" s="82" t="s">
@@ -13650,13 +13612,13 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="94" t="n">
+      <c r="B41" s="93" t="n">
         <v>21.3</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="85" t="n">
+      <c r="D41" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E41" s="79"/>
@@ -13674,7 +13636,7 @@
         <v>86</v>
       </c>
       <c r="M41" s="80"/>
-      <c r="N41" s="92" t="n">
+      <c r="N41" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O41" s="82" t="s">
@@ -13685,13 +13647,13 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="94" t="n">
+      <c r="B42" s="93" t="n">
         <v>21.4</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="85" t="n">
+      <c r="D42" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E42" s="79"/>
@@ -13707,7 +13669,7 @@
         <v>86</v>
       </c>
       <c r="M42" s="80"/>
-      <c r="N42" s="92" t="n">
+      <c r="N42" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O42" s="82" t="s">
@@ -13718,13 +13680,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="94" t="n">
+      <c r="B43" s="93" t="n">
         <v>21.5</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="85" t="n">
+      <c r="D43" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E43" s="79"/>
@@ -13740,7 +13702,7 @@
         <v>86</v>
       </c>
       <c r="M43" s="80"/>
-      <c r="N43" s="92" t="n">
+      <c r="N43" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O43" s="82" t="s">
@@ -13751,13 +13713,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="94" t="n">
+      <c r="B44" s="93" t="n">
         <v>21.6</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="85" t="n">
+      <c r="D44" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E44" s="79"/>
@@ -13773,7 +13735,7 @@
         <v>86</v>
       </c>
       <c r="M44" s="80"/>
-      <c r="N44" s="92" t="n">
+      <c r="N44" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O44" s="82" t="s">
@@ -13784,13 +13746,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="94" t="n">
+      <c r="B45" s="93" t="n">
         <v>22.1</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="85" t="n">
+      <c r="D45" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E45" s="79"/>
@@ -13810,7 +13772,7 @@
         <v>86</v>
       </c>
       <c r="M45" s="80"/>
-      <c r="N45" s="92" t="n">
+      <c r="N45" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O45" s="82" t="s">
@@ -13821,13 +13783,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="94" t="n">
+      <c r="B46" s="93" t="n">
         <v>22.2</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="85" t="n">
+      <c r="D46" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E46" s="79"/>
@@ -13847,7 +13809,7 @@
         <v>86</v>
       </c>
       <c r="M46" s="80"/>
-      <c r="N46" s="92" t="n">
+      <c r="N46" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O46" s="82" t="s">
@@ -13858,13 +13820,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="94" t="n">
+      <c r="B47" s="93" t="n">
         <v>22.3</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="85" t="n">
+      <c r="D47" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E47" s="79"/>
@@ -13884,7 +13846,7 @@
         <v>86</v>
       </c>
       <c r="M47" s="80"/>
-      <c r="N47" s="92" t="n">
+      <c r="N47" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O47" s="82" t="s">
@@ -13895,13 +13857,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="94" t="n">
+      <c r="B48" s="93" t="n">
         <v>22.4</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="85" t="n">
+      <c r="D48" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E48" s="79"/>
@@ -13919,7 +13881,7 @@
         <v>86</v>
       </c>
       <c r="M48" s="80"/>
-      <c r="N48" s="92" t="n">
+      <c r="N48" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O48" s="82" t="s">
@@ -13930,13 +13892,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="94" t="n">
+      <c r="B49" s="93" t="n">
         <v>22.5</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="85" t="n">
+      <c r="D49" s="84" t="n">
         <v>0.5</v>
       </c>
       <c r="E49" s="79"/>
@@ -13954,7 +13916,7 @@
         <v>86</v>
       </c>
       <c r="M49" s="80"/>
-      <c r="N49" s="92" t="n">
+      <c r="N49" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O49" s="82" t="s">
@@ -13965,29 +13927,29 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="95" t="n">
+      <c r="B50" s="94" t="n">
         <v>22.6</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="95" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="97"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="96"/>
       <c r="L50" s="80" t="s">
         <v>86</v>
       </c>
       <c r="M50" s="80"/>
-      <c r="N50" s="92" t="n">
+      <c r="N50" s="91" t="n">
         <v>0.5</v>
       </c>
       <c r="O50" s="82" t="s">
@@ -13998,96 +13960,96 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100" t="n">
+      <c r="C51" s="98"/>
+      <c r="D51" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="E51" s="101" t="n">
+      <c r="E51" s="100" t="n">
         <v>3.05</v>
       </c>
-      <c r="F51" s="101" t="n">
+      <c r="F51" s="100" t="n">
         <v>1.65</v>
       </c>
-      <c r="G51" s="101" t="n">
+      <c r="G51" s="100" t="n">
         <v>1.75</v>
       </c>
-      <c r="H51" s="101" t="n">
+      <c r="H51" s="100" t="n">
         <v>3.4</v>
       </c>
-      <c r="I51" s="101" t="n">
+      <c r="I51" s="100" t="n">
         <v>1.5</v>
       </c>
-      <c r="J51" s="101" t="n">
+      <c r="J51" s="100" t="n">
         <v>6.35</v>
       </c>
-      <c r="K51" s="101" t="n">
+      <c r="K51" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="102"/>
+      <c r="L51" s="101"/>
       <c r="M51" s="82"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104" t="n">
+      <c r="C52" s="102"/>
+      <c r="D52" s="103" t="n">
         <v>17.7</v>
       </c>
-      <c r="E52" s="105" t="n">
+      <c r="E52" s="104" t="n">
         <v>14.7</v>
       </c>
-      <c r="F52" s="105" t="n">
+      <c r="F52" s="104" t="n">
         <v>13</v>
       </c>
-      <c r="G52" s="105" t="n">
+      <c r="G52" s="104" t="n">
         <v>11.3</v>
       </c>
-      <c r="H52" s="105" t="n">
+      <c r="H52" s="104" t="n">
         <v>7.9</v>
       </c>
-      <c r="I52" s="105" t="n">
+      <c r="I52" s="104" t="n">
         <v>6.4</v>
       </c>
-      <c r="J52" s="105" t="n">
+      <c r="J52" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="105" t="n">
+      <c r="K52" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="L52" s="102"/>
+      <c r="L52" s="101"/>
       <c r="M52" s="82"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="107" t="n">
+      <c r="B53" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106" t="n">
         <v>17.7</v>
       </c>
-      <c r="E53" s="107" t="n">
+      <c r="E53" s="106" t="n">
         <v>15.2</v>
       </c>
-      <c r="F53" s="107" t="n">
+      <c r="F53" s="106" t="n">
         <v>12.6</v>
       </c>
-      <c r="G53" s="107" t="n">
+      <c r="G53" s="106" t="n">
         <v>10.1</v>
       </c>
-      <c r="H53" s="107" t="n">
+      <c r="H53" s="106" t="n">
         <v>7.6</v>
       </c>
-      <c r="I53" s="107" t="n">
+      <c r="I53" s="106" t="n">
         <v>5.1</v>
       </c>
-      <c r="J53" s="107" t="n">
+      <c r="J53" s="106" t="n">
         <v>2.5</v>
       </c>
-      <c r="K53" s="108" t="n">
+      <c r="K53" s="107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15099,7 +15061,7 @@
   </sheetPr>
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -15115,7 +15077,7 @@
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -15133,7 +15095,7 @@
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -15208,7 +15170,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="25" t="n">
         <v>2</v>
@@ -15245,7 +15207,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="25" t="n">
         <v>2</v>
@@ -15282,7 +15244,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="25" t="n">
         <v>2</v>
@@ -15321,7 +15283,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="25" t="n">
         <v>2</v>
@@ -15352,7 +15314,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="19" t="n">
         <v>3</v>
@@ -15387,7 +15349,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="25" t="n">
         <v>2</v>
@@ -15409,11 +15371,11 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="27"/>
-      <c r="L11" s="109" t="str">
+      <c r="L11" s="108" t="str">
         <f aca="false">IF(N11=0, "NOT STARTED",IF(N11&gt;D11, "ERROR TO MUCH WORK", IF(N11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M11" s="109"/>
+      <c r="M11" s="108"/>
       <c r="N11" s="3" t="n">
         <f aca="false">SUM(E11:K11)</f>
         <v>2</v>
@@ -15426,9 +15388,9 @@
         <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="110" t="n">
+        <v>122</v>
+      </c>
+      <c r="D12" s="109" t="n">
         <v>1.6</v>
       </c>
       <c r="E12" s="30"/>
@@ -15459,9 +15421,9 @@
         <v>30</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="110" t="n">
+        <v>123</v>
+      </c>
+      <c r="D13" s="109" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="30"/>
@@ -15473,11 +15435,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="27"/>
-      <c r="L13" s="109" t="str">
+      <c r="L13" s="108" t="str">
         <f aca="false">IF(N13=0, "NOT STARTED",IF(N13&gt;D13, "ERROR TO MUCH WORK", IF(N13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
       </c>
-      <c r="M13" s="109"/>
+      <c r="M13" s="108"/>
       <c r="N13" s="3" t="n">
         <f aca="false">SUM(E13:K13)</f>
         <v>1</v>
@@ -16621,7 +16583,7 @@
   </sheetPr>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -16643,7 +16605,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -16659,9 +16621,9 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="52"/>
       <c r="C3" s="53"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -16675,73 +16637,73 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="114" t="n">
+      <c r="E4" s="113" t="n">
         <v>45978</v>
       </c>
-      <c r="F4" s="115" t="n">
+      <c r="F4" s="114" t="n">
         <v>45979</v>
       </c>
-      <c r="G4" s="115" t="n">
+      <c r="G4" s="114" t="n">
         <v>45980</v>
       </c>
-      <c r="H4" s="115" t="n">
+      <c r="H4" s="114" t="n">
         <v>45981</v>
       </c>
-      <c r="I4" s="115" t="n">
+      <c r="I4" s="114" t="n">
         <v>45982</v>
       </c>
-      <c r="J4" s="115" t="n">
+      <c r="J4" s="114" t="n">
         <v>45983</v>
       </c>
-      <c r="K4" s="115" t="n">
+      <c r="K4" s="114" t="n">
         <v>45984</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="117" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="121" t="n">
+      <c r="D6" s="120" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="122"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="59" t="n">
         <v>0.5</v>
       </c>
@@ -16751,7 +16713,7 @@
       <c r="H6" s="61" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="123" t="n">
+      <c r="I6" s="122" t="n">
         <v>0.25</v>
       </c>
       <c r="J6" s="61" t="n">
@@ -16773,13 +16735,13 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="120" t="s">
+      <c r="B7" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="125" t="n">
+      <c r="C7" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="124" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="59" t="n">
@@ -16812,16 +16774,16 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="120" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="125" t="n">
+      <c r="D8" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="126" t="n">
+      <c r="E8" s="125" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="27" t="n">
@@ -16851,16 +16813,16 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="124" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="125" t="n">
+      <c r="C9" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="126" t="n">
+      <c r="E9" s="125" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" s="27" t="n">
@@ -16885,21 +16847,21 @@
         <v>2</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="124" t="s">
+      <c r="C10" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="125" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="126"/>
+      <c r="D10" s="124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="125"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27" t="n">
         <v>0.25</v>
@@ -16925,16 +16887,16 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="125" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="126" t="n">
+      <c r="C11" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="125" t="n">
         <v>0.25</v>
       </c>
       <c r="F11" s="27"/>
@@ -16960,16 +16922,16 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="125" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="126"/>
+      <c r="D12" s="124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="125"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="n">
@@ -16995,16 +16957,16 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="120" t="s">
+      <c r="B13" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="125" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="126"/>
+      <c r="C13" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="125"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="n">
@@ -17025,21 +16987,21 @@
         <v>0.5</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="124" t="n">
+      <c r="B14" s="123" t="n">
         <v>35</v>
       </c>
-      <c r="C14" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="125" t="n">
+      <c r="C14" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="126" t="n">
+      <c r="E14" s="125" t="n">
         <v>0.25</v>
       </c>
       <c r="F14" s="27" t="n">
@@ -17065,16 +17027,16 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="124" t="n">
+      <c r="B15" s="123" t="n">
         <v>36</v>
       </c>
-      <c r="C15" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="125" t="n">
+      <c r="C15" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="126"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27" t="n">
         <v>0.5</v>
@@ -17100,16 +17062,16 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="125" t="n">
+      <c r="D16" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="126"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -17135,16 +17097,16 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="124" t="s">
-        <v>144</v>
+      <c r="B17" s="123" t="s">
+        <v>143</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="125" t="n">
+        <v>142</v>
+      </c>
+      <c r="D17" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="126"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -17170,16 +17132,16 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="125" t="n">
+      <c r="D18" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="126"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -17203,16 +17165,16 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="124" t="s">
-        <v>147</v>
+      <c r="B19" s="123" t="s">
+        <v>146</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="125" t="n">
+        <v>145</v>
+      </c>
+      <c r="D19" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="126"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -17231,21 +17193,21 @@
         <v>1</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="124" t="n">
+      <c r="B20" s="123" t="n">
         <v>39</v>
       </c>
-      <c r="C20" s="120" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="125" t="n">
+      <c r="C20" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="126"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -17273,16 +17235,16 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="124" t="n">
+      <c r="B21" s="123" t="n">
         <v>40</v>
       </c>
-      <c r="C21" s="120" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="125" t="n">
+      <c r="C21" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="126"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -17308,16 +17270,16 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="124" t="n">
+      <c r="B22" s="123" t="n">
         <v>41</v>
       </c>
-      <c r="C22" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="125" t="n">
+      <c r="C22" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="126" t="n">
+      <c r="E22" s="125" t="n">
         <v>0.5</v>
       </c>
       <c r="F22" s="27" t="n">
@@ -17345,28 +17307,28 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="128" t="n">
+      <c r="B23" s="127" t="n">
         <v>42</v>
       </c>
-      <c r="C23" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="130" t="n">
+      <c r="C23" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="129" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="131" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="132" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="132" t="n">
+      <c r="E23" s="130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
       <c r="L23" s="54" t="str">
         <f aca="false">IF(N23=0, "NOT STARTED",IF(N23&gt;D23, "ERROR TO MUCH WORK", IF(N23=D23, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>DONE</v>
@@ -17382,38 +17344,38 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135" t="n">
+      <c r="C24" s="133"/>
+      <c r="D24" s="134" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="136" t="n">
+      <c r="E24" s="135" t="n">
         <f aca="false">SUM(E6:E23)</f>
         <v>3</v>
       </c>
-      <c r="F24" s="136" t="n">
+      <c r="F24" s="135" t="n">
         <f aca="false">SUM(F6:F23)</f>
         <v>3.25</v>
       </c>
-      <c r="G24" s="136" t="n">
+      <c r="G24" s="135" t="n">
         <f aca="false">SUM(G6:G23)</f>
         <v>4.75</v>
       </c>
-      <c r="H24" s="136" t="n">
+      <c r="H24" s="135" t="n">
         <f aca="false">SUM(H6:H23)</f>
         <v>3.5</v>
       </c>
-      <c r="I24" s="136" t="n">
+      <c r="I24" s="135" t="n">
         <f aca="false">SUM(I6:I23)</f>
         <v>2</v>
       </c>
-      <c r="J24" s="136" t="n">
+      <c r="J24" s="135" t="n">
         <f aca="false">SUM(J6:J23)</f>
         <v>4.75</v>
       </c>
-      <c r="K24" s="136" t="n">
+      <c r="K24" s="135" t="n">
         <f aca="false">SUM(K6:K23)</f>
         <v>4.75</v>
       </c>
@@ -17424,39 +17386,39 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="138" t="n">
+      <c r="C25" s="136"/>
+      <c r="D25" s="137" t="n">
         <f aca="false">SUM(D6:D24)</f>
         <v>26</v>
       </c>
-      <c r="E25" s="139" t="n">
+      <c r="E25" s="138" t="n">
         <f aca="false">D25-SUM(E6:E23)</f>
         <v>23</v>
       </c>
-      <c r="F25" s="139" t="n">
+      <c r="F25" s="138" t="n">
         <f aca="false">E25-SUM(F6:F23)</f>
         <v>19.75</v>
       </c>
-      <c r="G25" s="139" t="n">
+      <c r="G25" s="138" t="n">
         <f aca="false">F25-SUM(G6:G23)</f>
         <v>15</v>
       </c>
-      <c r="H25" s="139" t="n">
+      <c r="H25" s="138" t="n">
         <f aca="false">G25-SUM(H6:H23)</f>
         <v>11.5</v>
       </c>
-      <c r="I25" s="139" t="n">
+      <c r="I25" s="138" t="n">
         <f aca="false">H25-SUM(I6:I23)</f>
         <v>9.5</v>
       </c>
-      <c r="J25" s="139" t="n">
+      <c r="J25" s="138" t="n">
         <f aca="false">I25-SUM(J6:J23)</f>
         <v>4.75</v>
       </c>
-      <c r="K25" s="139" t="n">
+      <c r="K25" s="138" t="n">
         <f aca="false">J25-SUM(K6:K23)</f>
         <v>0</v>
       </c>
@@ -17467,39 +17429,39 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141" t="n">
+      <c r="C26" s="139"/>
+      <c r="D26" s="140" t="n">
         <f aca="false">SUM(D6:D23)</f>
         <v>26</v>
       </c>
-      <c r="E26" s="142" t="n">
+      <c r="E26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*1)</f>
         <v>22.2857142857143</v>
       </c>
-      <c r="F26" s="142" t="n">
+      <c r="F26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*2)</f>
         <v>18.5714285714286</v>
       </c>
-      <c r="G26" s="142" t="n">
+      <c r="G26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*3)</f>
         <v>14.8571428571429</v>
       </c>
-      <c r="H26" s="142" t="n">
+      <c r="H26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*4)</f>
         <v>11.1428571428571</v>
       </c>
-      <c r="I26" s="142" t="n">
+      <c r="I26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*5)</f>
         <v>7.42857142857143</v>
       </c>
-      <c r="J26" s="142" t="n">
+      <c r="J26" s="141" t="n">
         <f aca="false">$D$26-($D$26/7*6)</f>
         <v>3.71428571428572</v>
       </c>
-      <c r="K26" s="143" t="n">
+      <c r="K26" s="142" t="n">
         <f aca="false">$D$26-($D$26/7*7)</f>
         <v>0</v>
       </c>
@@ -17510,16 +17472,16 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="144"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
       <c r="L27" s="54"/>
       <c r="M27" s="54"/>
       <c r="N27" s="3"/>
@@ -17527,16 +17489,16 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="144"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="54"/>
       <c r="M28" s="54"/>
       <c r="N28" s="3"/>
@@ -17544,16 +17506,16 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="144"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
       <c r="L29" s="54"/>
       <c r="M29" s="54"/>
       <c r="N29" s="3"/>
@@ -17561,16 +17523,16 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="144"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
       <c r="L30" s="54"/>
       <c r="M30" s="54"/>
       <c r="N30" s="3"/>
@@ -17578,16 +17540,16 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="144"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
       <c r="L31" s="54"/>
       <c r="M31" s="54"/>
       <c r="N31" s="3"/>
@@ -17595,16 +17557,16 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="144"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
       <c r="L32" s="54"/>
       <c r="M32" s="54"/>
       <c r="N32" s="3"/>
@@ -17612,16 +17574,16 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="144"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
       <c r="N33" s="3"/>
@@ -17629,16 +17591,16 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="144"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
       <c r="L34" s="54"/>
       <c r="M34" s="54"/>
       <c r="N34" s="3"/>
@@ -17646,16 +17608,16 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="144"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
       <c r="L35" s="54"/>
       <c r="M35" s="54"/>
       <c r="N35" s="3"/>
@@ -17663,16 +17625,16 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="144"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
       <c r="L36" s="54"/>
       <c r="M36" s="54"/>
       <c r="N36" s="3"/>
@@ -17680,16 +17642,16 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="144"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
       <c r="N37" s="3"/>
@@ -17784,15 +17746,15 @@
   </sheetPr>
   <dimension ref="B1:T979"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="73.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="10"/>
   </cols>
@@ -17802,7 +17764,7 @@
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -17813,10 +17775,10 @@
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17824,7 +17786,7 @@
       <c r="C3" s="55"/>
       <c r="D3" s="53"/>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -17832,10 +17794,10 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17927,30 +17889,48 @@
         <v>43.1</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="25" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="F6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O6" s="27"/>
       <c r="P6" s="54" t="str">
         <f aca="false">IF(R6=0, "NOT STARTED",IF(R6&gt;D6, "ERROR TO MUCH WORK", IF(R6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <v>NOT ENOUGH WORK YET</v>
       </c>
       <c r="Q6" s="54"/>
       <c r="R6" s="3" t="n">
-        <f aca="false">SUM(E6:K6)</f>
-        <v>0</v>
+        <f aca="false">SUM(E6:O6)</f>
+        <v>4.5</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>42</v>
@@ -17962,23 +17942,39 @@
         <v>43.2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="G7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O7" s="27"/>
       <c r="P7" s="54" t="str">
         <f aca="false">IF(R7=0, "NOT STARTED",IF(R7&gt;D7, "ERROR TO MUCH WORK", IF(R7=D7, "DONE", "NOT ENOUGH WORK YET")))</f>
@@ -17986,8 +17982,8 @@
       </c>
       <c r="Q7" s="54"/>
       <c r="R7" s="3" t="n">
-        <f aca="false">SUM(E7:K7)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E7:O7)</f>
+        <v>4.5</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>48</v>
@@ -17999,16 +17995,22 @@
         <v>44.1</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -18017,12 +18019,12 @@
       <c r="O8" s="27"/>
       <c r="P8" s="54" t="str">
         <f aca="false">IF(R8=0, "NOT STARTED",IF(R8&gt;D8, "ERROR TO MUCH WORK", IF(R8=D8, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="Q8" s="54"/>
       <c r="R8" s="3" t="n">
-        <f aca="false">SUM(E8:K8)</f>
-        <v>0</v>
+        <f aca="false">SUM(E8:O8)</f>
+        <v>1.5</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>38</v>
@@ -18034,18 +18036,22 @@
         <v>44.2</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -18054,12 +18060,12 @@
       <c r="O9" s="27"/>
       <c r="P9" s="54" t="str">
         <f aca="false">IF(R9=0, "NOT STARTED",IF(R9&gt;D9, "ERROR TO MUCH WORK", IF(R9=D9, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q9" s="54"/>
       <c r="R9" s="3" t="n">
-        <f aca="false">SUM(E9:K9)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E9:O9)</f>
+        <v>1.5</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>50</v>
@@ -18071,10 +18077,10 @@
         <v>45.1</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="19" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E10" s="30" t="n">
         <v>0.5</v>
@@ -18082,14 +18088,30 @@
       <c r="F10" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="G10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O10" s="27"/>
       <c r="P10" s="54" t="str">
         <f aca="false">IF(R10=0, "NOT STARTED",IF(R10&gt;D10, "ERROR TO MUCH WORK", IF(R10=D10, "DONE", "NOT ENOUGH WORK YET")))</f>
@@ -18097,8 +18119,8 @@
       </c>
       <c r="Q10" s="54"/>
       <c r="R10" s="3" t="n">
-        <f aca="false">SUM(E10:K10)</f>
-        <v>1</v>
+        <f aca="false">SUM(E10:O10)</f>
+        <v>5</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>42</v>
@@ -18110,30 +18132,50 @@
         <v>45.2</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O11" s="27"/>
-      <c r="P11" s="109" t="str">
+      <c r="P11" s="108" t="str">
         <f aca="false">IF(R11=0, "NOT STARTED",IF(R11&gt;D11, "ERROR TO MUCH WORK", IF(R11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q11" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="Q11" s="108"/>
       <c r="R11" s="3" t="n">
-        <f aca="false">SUM(E11:K11)</f>
-        <v>0</v>
+        <f aca="false">SUM(E11:O11)</f>
+        <v>5</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>48</v>
@@ -18145,30 +18187,42 @@
         <v>46.1</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="110" t="n">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="D12" s="109" t="n">
+        <v>2.5</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+      <c r="I12" s="28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O12" s="27"/>
       <c r="P12" s="54" t="str">
         <f aca="false">IF(R12=0, "NOT STARTED",IF(R12&gt;D12, "ERROR TO MUCH WORK", IF(R12=D12, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
+        <v>DONE</v>
       </c>
       <c r="Q12" s="54"/>
       <c r="R12" s="3" t="n">
-        <f aca="false">SUM(E12:K12)</f>
-        <v>0</v>
+        <f aca="false">SUM(E12:O12)</f>
+        <v>2.5</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>38</v>
@@ -18180,30 +18234,42 @@
         <v>46.2</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="110" t="n">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="D13" s="109" t="n">
+        <v>2.5</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="I13" s="28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O13" s="27"/>
-      <c r="P13" s="109" t="str">
+      <c r="P13" s="108" t="str">
         <f aca="false">IF(R13=0, "NOT STARTED",IF(R13&gt;D13, "ERROR TO MUCH WORK", IF(R13=D13, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q13" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q13" s="108"/>
       <c r="R13" s="3" t="n">
-        <f aca="false">SUM(E13:K13)</f>
-        <v>0</v>
+        <f aca="false">SUM(E13:O13)</f>
+        <v>2.5</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>48</v>
@@ -18215,34 +18281,42 @@
         <v>47</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="110" t="n">
-        <v>2</v>
+        <v>156</v>
+      </c>
+      <c r="D14" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E14" s="30" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
-      <c r="P14" s="109" t="str">
+      <c r="P14" s="108" t="str">
         <f aca="false">IF(R14=0, "NOT STARTED",IF(R14&gt;D14, "ERROR TO MUCH WORK", IF(R14=D14, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="Q14" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q14" s="108"/>
       <c r="R14" s="3" t="n">
-        <f aca="false">SUM(E14:K14)</f>
-        <v>1</v>
+        <f aca="false">SUM(E14:O14)</f>
+        <v>1.5</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>45</v>
@@ -18254,17 +18328,21 @@
         <v>48</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="110" t="n">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="D15" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H15" s="27" t="n">
+        <v>0.3</v>
+      </c>
       <c r="I15" s="28"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -18272,14 +18350,14 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
-      <c r="P15" s="109" t="str">
+      <c r="P15" s="108" t="str">
         <f aca="false">IF(R15=0, "NOT STARTED",IF(R15&gt;D15, "ERROR TO MUCH WORK", IF(R15=D15, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="Q15" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q15" s="108"/>
       <c r="R15" s="3" t="n">
-        <f aca="false">SUM(E15:K15)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E15:O15)</f>
+        <v>1.5</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>40</v>
@@ -18291,10 +18369,10 @@
         <v>49.1</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="110" t="n">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="109" t="n">
+        <v>99</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="27"/>
@@ -18303,18 +18381,24 @@
       <c r="I16" s="28"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="L16" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O16" s="27"/>
-      <c r="P16" s="109" t="str">
+      <c r="P16" s="108" t="str">
         <f aca="false">IF(R16=0, "NOT STARTED",IF(R16&gt;D16, "ERROR TO MUCH WORK", IF(R16=D16, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q16" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="Q16" s="108"/>
       <c r="R16" s="3" t="n">
-        <f aca="false">SUM(E16:K16)</f>
-        <v>0</v>
+        <f aca="false">SUM(E16:O16)</f>
+        <v>1.5</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>42</v>
@@ -18325,10 +18409,10 @@
         <v>49.2</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="110" t="n">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="109" t="n">
+        <v>99</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="27"/>
@@ -18337,18 +18421,24 @@
       <c r="I17" s="28"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="L17" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O17" s="27"/>
-      <c r="P17" s="109" t="str">
+      <c r="P17" s="108" t="str">
         <f aca="false">IF(R17=0, "NOT STARTED",IF(R17&gt;D17, "ERROR TO MUCH WORK", IF(R17=D17, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q17" s="109"/>
+        <v>NOT ENOUGH WORK YET</v>
+      </c>
+      <c r="Q17" s="108"/>
       <c r="R17" s="3" t="n">
-        <f aca="false">SUM(E17:K17)</f>
-        <v>0</v>
+        <f aca="false">SUM(E17:O17)</f>
+        <v>1.5</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>48</v>
@@ -18359,9 +18449,9 @@
         <v>50.1</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="110" t="n">
+        <v>159</v>
+      </c>
+      <c r="D18" s="109" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="30"/>
@@ -18371,18 +18461,22 @@
       <c r="I18" s="28"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="L18" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
-      <c r="P18" s="109" t="str">
+      <c r="P18" s="108" t="str">
         <f aca="false">IF(R18=0, "NOT STARTED",IF(R18&gt;D18, "ERROR TO MUCH WORK", IF(R18=D18, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q18" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q18" s="108"/>
       <c r="R18" s="3" t="n">
-        <f aca="false">SUM(E18:K18)</f>
-        <v>0</v>
+        <f aca="false">SUM(E18:O18)</f>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>38</v>
@@ -18393,9 +18487,9 @@
         <v>50.2</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="110" t="n">
+        <v>159</v>
+      </c>
+      <c r="D19" s="109" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="30"/>
@@ -18405,18 +18499,22 @@
       <c r="I19" s="28"/>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="L19" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="27" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
-      <c r="P19" s="109" t="str">
+      <c r="P19" s="108" t="str">
         <f aca="false">IF(R19=0, "NOT STARTED",IF(R19&gt;D19, "ERROR TO MUCH WORK", IF(R19=D19, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q19" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q19" s="108"/>
       <c r="R19" s="3" t="n">
-        <f aca="false">SUM(E19:K19)</f>
-        <v>0</v>
+        <f aca="false">SUM(E19:O19)</f>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>50</v>
@@ -18427,32 +18525,48 @@
         <v>51</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="110" t="n">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="D20" s="109" t="n">
+        <v>99</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="G20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O20" s="27"/>
-      <c r="P20" s="109" t="str">
+      <c r="P20" s="108" t="str">
         <f aca="false">IF(R20=0, "NOT STARTED",IF(R20&gt;D20, "ERROR TO MUCH WORK", IF(R20=D20, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT ENOUGH WORK YET</v>
       </c>
-      <c r="Q20" s="109"/>
+      <c r="Q20" s="108"/>
       <c r="R20" s="3" t="n">
-        <f aca="false">SUM(E20:K20)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E20:O20)</f>
+        <v>4.5</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>45</v>
@@ -18463,13 +18577,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="110" t="n">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="D21" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E21" s="30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -18481,14 +18595,14 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="109" t="str">
+      <c r="P21" s="108" t="str">
         <f aca="false">IF(R21=0, "NOT STARTED",IF(R21&gt;D21, "ERROR TO MUCH WORK", IF(R21=D21, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="Q21" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q21" s="108"/>
       <c r="R21" s="3" t="n">
-        <f aca="false">SUM(E21:K21)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E21:O21)</f>
+        <v>1</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>40</v>
@@ -18499,10 +18613,10 @@
         <v>53.1</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="110" t="n">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="D22" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="27"/>
@@ -18510,19 +18624,23 @@
       <c r="H22" s="27"/>
       <c r="I22" s="28"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="K22" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-      <c r="P22" s="109" t="str">
+      <c r="P22" s="108" t="str">
         <f aca="false">IF(R22=0, "NOT STARTED",IF(R22&gt;D22, "ERROR TO MUCH WORK", IF(R22=D22, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q22" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q22" s="108"/>
       <c r="R22" s="3" t="n">
-        <f aca="false">SUM(E22:K22)</f>
-        <v>0</v>
+        <f aca="false">SUM(E22:O22)</f>
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>42</v>
@@ -18533,10 +18651,10 @@
         <v>53.2</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="110" t="n">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="D23" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="27"/>
@@ -18544,19 +18662,23 @@
       <c r="H23" s="27"/>
       <c r="I23" s="28"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="K23" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
-      <c r="P23" s="109" t="str">
+      <c r="P23" s="108" t="str">
         <f aca="false">IF(R23=0, "NOT STARTED",IF(R23&gt;D23, "ERROR TO MUCH WORK", IF(R23=D23, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q23" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q23" s="108"/>
       <c r="R23" s="3" t="n">
-        <f aca="false">SUM(E23:K23)</f>
-        <v>0</v>
+        <f aca="false">SUM(E23:O23)</f>
+        <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>48</v>
@@ -18567,15 +18689,21 @@
         <v>54.1</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="110" t="n">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="D24" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E24" s="30"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="F24" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="28"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -18583,14 +18711,14 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
-      <c r="P24" s="109" t="str">
+      <c r="P24" s="108" t="str">
         <f aca="false">IF(R24=0, "NOT STARTED",IF(R24&gt;D24, "ERROR TO MUCH WORK", IF(R24=D24, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q24" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q24" s="108"/>
       <c r="R24" s="3" t="n">
-        <f aca="false">SUM(E24:K24)</f>
-        <v>0</v>
+        <f aca="false">SUM(E24:O24)</f>
+        <v>1.5</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>38</v>
@@ -18601,15 +18729,21 @@
         <v>54.2</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="110" t="n">
-        <v>2</v>
+        <v>163</v>
+      </c>
+      <c r="D25" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E25" s="30"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="F25" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="28"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -18617,14 +18751,14 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
-      <c r="P25" s="109" t="str">
+      <c r="P25" s="108" t="str">
         <f aca="false">IF(R25=0, "NOT STARTED",IF(R25&gt;D25, "ERROR TO MUCH WORK", IF(R25=D25, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q25" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q25" s="108"/>
       <c r="R25" s="3" t="n">
-        <f aca="false">SUM(E25:K25)</f>
-        <v>0</v>
+        <f aca="false">SUM(E25:O25)</f>
+        <v>1.5</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>50</v>
@@ -18635,32 +18769,40 @@
         <v>55.1</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="110" t="n">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="D26" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="27"/>
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
-      <c r="P26" s="109" t="str">
+      <c r="P26" s="108" t="str">
         <f aca="false">IF(R26=0, "NOT STARTED",IF(R26&gt;D26, "ERROR TO MUCH WORK", IF(R26=D26, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="Q26" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q26" s="108"/>
       <c r="R26" s="3" t="n">
-        <f aca="false">SUM(E26:K26)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E26:O26)</f>
+        <v>1.5</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>42</v>
@@ -18671,32 +18813,40 @@
         <v>55.2</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="110" t="n">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="D27" s="109" t="n">
+        <v>1.5</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="27"/>
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="27" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
-      <c r="P27" s="109" t="str">
+      <c r="P27" s="108" t="str">
         <f aca="false">IF(R27=0, "NOT STARTED",IF(R27&gt;D27, "ERROR TO MUCH WORK", IF(R27=D27, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
-      </c>
-      <c r="Q27" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q27" s="108"/>
       <c r="R27" s="3" t="n">
-        <f aca="false">SUM(E27:K27)</f>
-        <v>0.5</v>
+        <f aca="false">SUM(E27:O27)</f>
+        <v>1.5</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>45</v>
@@ -18707,10 +18857,10 @@
         <v>56.1</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D28" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="27"/>
@@ -18720,17 +18870,23 @@
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="109" t="str">
+      <c r="M28" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N28" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P28" s="108" t="str">
         <f aca="false">IF(R28=0, "NOT STARTED",IF(R28&gt;D28, "ERROR TO MUCH WORK", IF(R28=D28, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q28" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q28" s="108"/>
       <c r="R28" s="3" t="n">
-        <f aca="false">SUM(E28:K28)</f>
-        <v>0</v>
+        <f aca="false">SUM(E28:O28)</f>
+        <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>45</v>
@@ -18741,10 +18897,10 @@
         <v>56.2</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D29" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="27"/>
@@ -18754,17 +18910,23 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="109" t="str">
+      <c r="M29" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N29" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P29" s="108" t="str">
         <f aca="false">IF(R29=0, "NOT STARTED",IF(R29&gt;D29, "ERROR TO MUCH WORK", IF(R29=D29, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q29" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q29" s="108"/>
       <c r="R29" s="3" t="n">
-        <f aca="false">SUM(E29:K29)</f>
-        <v>0</v>
+        <f aca="false">SUM(E29:O29)</f>
+        <v>1</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>40</v>
@@ -18775,10 +18937,10 @@
         <v>56.3</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D30" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="27"/>
@@ -18788,17 +18950,23 @@
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="109" t="str">
+      <c r="M30" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N30" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O30" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="108" t="str">
         <f aca="false">IF(R30=0, "NOT STARTED",IF(R30&gt;D30, "ERROR TO MUCH WORK", IF(R30=D30, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q30" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q30" s="108"/>
       <c r="R30" s="3" t="n">
-        <f aca="false">SUM(E30:K30)</f>
-        <v>0</v>
+        <f aca="false">SUM(E30:O30)</f>
+        <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>42</v>
@@ -18809,10 +18977,10 @@
         <v>56.4</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D31" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="27"/>
@@ -18822,17 +18990,23 @@
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="109" t="str">
+      <c r="M31" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N31" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O31" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="108" t="str">
         <f aca="false">IF(R31=0, "NOT STARTED",IF(R31&gt;D31, "ERROR TO MUCH WORK", IF(R31=D31, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q31" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q31" s="108"/>
       <c r="R31" s="3" t="n">
-        <f aca="false">SUM(E31:K31)</f>
-        <v>0</v>
+        <f aca="false">SUM(E31:O31)</f>
+        <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>48</v>
@@ -18843,10 +19017,10 @@
         <v>56.5</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D32" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="27"/>
@@ -18856,17 +19030,23 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="109" t="str">
+      <c r="M32" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N32" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O32" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="108" t="str">
         <f aca="false">IF(R32=0, "NOT STARTED",IF(R32&gt;D32, "ERROR TO MUCH WORK", IF(R32=D32, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q32" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q32" s="108"/>
       <c r="R32" s="3" t="n">
-        <f aca="false">SUM(E32:K32)</f>
-        <v>0</v>
+        <f aca="false">SUM(E32:O32)</f>
+        <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
@@ -18877,10 +19057,10 @@
         <v>56.6</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="110" t="n">
-        <v>2</v>
+        <v>165</v>
+      </c>
+      <c r="D33" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="27"/>
@@ -18890,17 +19070,23 @@
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="109" t="str">
+      <c r="M33" s="27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O33" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="108" t="str">
         <f aca="false">IF(R33=0, "NOT STARTED",IF(R33&gt;D33, "ERROR TO MUCH WORK", IF(R33=D33, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q33" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q33" s="108"/>
       <c r="R33" s="3" t="n">
-        <f aca="false">SUM(E33:K33)</f>
-        <v>0</v>
+        <f aca="false">SUM(E33:O33)</f>
+        <v>1</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>50</v>
@@ -18911,10 +19097,10 @@
         <v>57.1</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D34" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="27"/>
@@ -18925,16 +19111,20 @@
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="109" t="str">
+      <c r="N34" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P34" s="108" t="str">
         <f aca="false">IF(R34=0, "NOT STARTED",IF(R34&gt;D34, "ERROR TO MUCH WORK", IF(R34=D34, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q34" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q34" s="108"/>
       <c r="R34" s="3" t="n">
-        <f aca="false">SUM(E34:K34)</f>
-        <v>0</v>
+        <f aca="false">SUM(E34:O34)</f>
+        <v>1</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>45</v>
@@ -18945,10 +19135,10 @@
         <v>57.2</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D35" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="27"/>
@@ -18959,16 +19149,20 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="109" t="str">
+      <c r="N35" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="108" t="str">
         <f aca="false">IF(R35=0, "NOT STARTED",IF(R35&gt;D35, "ERROR TO MUCH WORK", IF(R35=D35, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q35" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q35" s="108"/>
       <c r="R35" s="3" t="n">
-        <f aca="false">SUM(E35:K35)</f>
-        <v>0</v>
+        <f aca="false">SUM(E35:O35)</f>
+        <v>1</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>40</v>
@@ -18979,10 +19173,10 @@
         <v>57.3</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D36" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="27"/>
@@ -18993,16 +19187,20 @@
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="109" t="str">
+      <c r="N36" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="108" t="str">
         <f aca="false">IF(R36=0, "NOT STARTED",IF(R36&gt;D36, "ERROR TO MUCH WORK", IF(R36=D36, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q36" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q36" s="108"/>
       <c r="R36" s="3" t="n">
-        <f aca="false">SUM(E36:K36)</f>
-        <v>0</v>
+        <f aca="false">SUM(E36:O36)</f>
+        <v>1</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
@@ -19013,10 +19211,10 @@
         <v>57.4</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D37" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="27"/>
@@ -19027,16 +19225,20 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="109" t="str">
+      <c r="N37" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="108" t="str">
         <f aca="false">IF(R37=0, "NOT STARTED",IF(R37&gt;D37, "ERROR TO MUCH WORK", IF(R37=D37, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q37" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q37" s="108"/>
       <c r="R37" s="3" t="n">
-        <f aca="false">SUM(E37:K37)</f>
-        <v>0</v>
+        <f aca="false">SUM(E37:O37)</f>
+        <v>1</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>48</v>
@@ -19047,10 +19249,10 @@
         <v>57.5</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D38" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="27"/>
@@ -19061,16 +19263,20 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="109" t="str">
+      <c r="N38" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O38" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="108" t="str">
         <f aca="false">IF(R38=0, "NOT STARTED",IF(R38&gt;D38, "ERROR TO MUCH WORK", IF(R38=D38, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q38" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q38" s="108"/>
       <c r="R38" s="3" t="n">
-        <f aca="false">SUM(E38:K38)</f>
-        <v>0</v>
+        <f aca="false">SUM(E38:O38)</f>
+        <v>1</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>38</v>
@@ -19081,10 +19287,10 @@
         <v>57.6</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="110" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="D39" s="109" t="n">
+        <v>1</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="27"/>
@@ -19095,16 +19301,20 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="109" t="str">
+      <c r="N39" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O39" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P39" s="108" t="str">
         <f aca="false">IF(R39=0, "NOT STARTED",IF(R39&gt;D39, "ERROR TO MUCH WORK", IF(R39=D39, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q39" s="109"/>
+        <v>DONE</v>
+      </c>
+      <c r="Q39" s="108"/>
       <c r="R39" s="3" t="n">
-        <f aca="false">SUM(E39:K39)</f>
-        <v>0</v>
+        <f aca="false">SUM(E39:O39)</f>
+        <v>1</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>50</v>
@@ -19113,7 +19323,7 @@
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="24"/>
       <c r="C40" s="55"/>
-      <c r="D40" s="110"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="30"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -19125,20 +19335,20 @@
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
-      <c r="P40" s="109" t="str">
+      <c r="P40" s="108" t="str">
         <f aca="false">IF(R40=0, "NOT STARTED",IF(R40&gt;D40, "ERROR TO MUCH WORK", IF(R40=D40, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="Q40" s="109"/>
+      <c r="Q40" s="108"/>
       <c r="R40" s="3" t="n">
-        <f aca="false">SUM(E40:K40)</f>
+        <f aca="false">SUM(E40:O40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="24"/>
       <c r="C41" s="55"/>
-      <c r="D41" s="110"/>
+      <c r="D41" s="109"/>
       <c r="E41" s="30"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -19150,20 +19360,20 @@
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
-      <c r="P41" s="109" t="str">
+      <c r="P41" s="108" t="str">
         <f aca="false">IF(R41=0, "NOT STARTED",IF(R41&gt;D41, "ERROR TO MUCH WORK", IF(R41=D41, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="Q41" s="109"/>
+      <c r="Q41" s="108"/>
       <c r="R41" s="3" t="n">
-        <f aca="false">SUM(E41:K41)</f>
+        <f aca="false">SUM(E41:O41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="24"/>
       <c r="C42" s="55"/>
-      <c r="D42" s="110"/>
+      <c r="D42" s="109"/>
       <c r="E42" s="30"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -19175,20 +19385,20 @@
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
-      <c r="P42" s="109" t="str">
+      <c r="P42" s="108" t="str">
         <f aca="false">IF(R42=0, "NOT STARTED",IF(R42&gt;D42, "ERROR TO MUCH WORK", IF(R42=D42, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="Q42" s="109"/>
+      <c r="Q42" s="108"/>
       <c r="R42" s="3" t="n">
-        <f aca="false">SUM(E42:K42)</f>
+        <f aca="false">SUM(E42:O42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="24"/>
       <c r="C43" s="55"/>
-      <c r="D43" s="110"/>
+      <c r="D43" s="109"/>
       <c r="E43" s="30"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
@@ -19200,13 +19410,13 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="109" t="str">
+      <c r="P43" s="108" t="str">
         <f aca="false">IF(R43=0, "NOT STARTED",IF(R43&gt;D43, "ERROR TO MUCH WORK", IF(R43=D43, "DONE", "NOT ENOUGH WORK YET")))</f>
         <v>NOT STARTED</v>
       </c>
-      <c r="Q43" s="109"/>
+      <c r="Q43" s="108"/>
       <c r="R43" s="3" t="n">
-        <f aca="false">SUM(E43:K43)</f>
+        <f aca="false">SUM(E43:O43)</f>
         <v>0</v>
       </c>
     </row>
@@ -19220,47 +19430,47 @@
       </c>
       <c r="E44" s="33" t="n">
         <f aca="false">SUM(E6:E43)</f>
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="F44" s="34" t="n">
         <f aca="false">SUM(F6:F43)</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="G44" s="34" t="n">
         <f aca="false">SUM(G6:G43)</f>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H44" s="34" t="n">
         <f aca="false">SUM(H6:H43)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I44" s="35" t="n">
         <f aca="false">SUM(I6:I43)</f>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J44" s="36" t="n">
         <f aca="false">SUM(J6:J43)</f>
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="K44" s="34" t="n">
         <f aca="false">SUM(K6:K43)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L44" s="34" t="n">
         <f aca="false">SUM(L6:L43)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M44" s="34" t="n">
         <f aca="false">SUM(M6:M43)</f>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N44" s="34" t="n">
         <f aca="false">SUM(N6:N43)</f>
-        <v>0</v>
+        <v>9.7</v>
       </c>
       <c r="O44" s="34" t="n">
         <f aca="false">SUM(O6:O43)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19270,51 +19480,51 @@
       <c r="C45" s="38"/>
       <c r="D45" s="39" t="n">
         <f aca="false">SUM(D6:D44)</f>
-        <v>69</v>
+        <v>729</v>
       </c>
       <c r="E45" s="40" t="n">
         <f aca="false">D45-SUM(E6:E43)</f>
-        <v>67.5</v>
+        <v>726.8</v>
       </c>
       <c r="F45" s="41" t="n">
         <f aca="false">E45-SUM(F6:F43)</f>
-        <v>63.5</v>
+        <v>722</v>
       </c>
       <c r="G45" s="41" t="n">
         <f aca="false">F45-SUM(G6:G43)</f>
-        <v>63.5</v>
+        <v>716.2</v>
       </c>
       <c r="H45" s="41" t="n">
         <f aca="false">G45-SUM(H6:H43)</f>
-        <v>63.5</v>
+        <v>710.8</v>
       </c>
       <c r="I45" s="42" t="n">
         <f aca="false">H45-SUM(I6:I43)</f>
-        <v>63.5</v>
+        <v>706.1</v>
       </c>
       <c r="J45" s="43" t="n">
         <f aca="false">I45-SUM(J6:J43)</f>
-        <v>63.5</v>
+        <v>701.5</v>
       </c>
       <c r="K45" s="43" t="n">
         <f aca="false">J45-SUM(K6:K43)</f>
-        <v>63.5</v>
+        <v>697</v>
       </c>
       <c r="L45" s="43" t="n">
         <f aca="false">K45-SUM(L6:L43)</f>
-        <v>63.5</v>
+        <v>689.5</v>
       </c>
       <c r="M45" s="43" t="n">
         <f aca="false">L45-SUM(M6:M43)</f>
-        <v>63.5</v>
+        <v>681.6</v>
       </c>
       <c r="N45" s="43" t="n">
         <f aca="false">M45-SUM(N6:N43)</f>
-        <v>63.5</v>
+        <v>671.9</v>
       </c>
       <c r="O45" s="43" t="n">
         <f aca="false">N45-SUM(O6:O43)</f>
-        <v>63.5</v>
+        <v>666.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19324,47 +19534,47 @@
       <c r="C46" s="46"/>
       <c r="D46" s="47" t="n">
         <f aca="false">D45</f>
-        <v>69</v>
+        <v>729</v>
       </c>
       <c r="E46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*1)</f>
-        <v>62.7272727272727</v>
+        <v>662.727272727273</v>
       </c>
       <c r="F46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*2)</f>
-        <v>56.4545454545455</v>
+        <v>596.454545454546</v>
       </c>
       <c r="G46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*3)</f>
-        <v>50.1818181818182</v>
+        <v>530.181818181818</v>
       </c>
       <c r="H46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*4)</f>
-        <v>43.9090909090909</v>
+        <v>463.909090909091</v>
       </c>
       <c r="I46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*5)</f>
-        <v>37.6363636363636</v>
+        <v>397.636363636364</v>
       </c>
       <c r="J46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*6)</f>
-        <v>31.3636363636364</v>
+        <v>331.363636363636</v>
       </c>
       <c r="K46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*7)</f>
-        <v>25.0909090909091</v>
+        <v>265.090909090909</v>
       </c>
       <c r="L46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*8)</f>
-        <v>18.8181818181818</v>
+        <v>198.818181818182</v>
       </c>
       <c r="M46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*9)</f>
-        <v>12.5454545454545</v>
+        <v>132.545454545455</v>
       </c>
       <c r="N46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*10)</f>
-        <v>6.27272727272727</v>
+        <v>66.2727272727274</v>
       </c>
       <c r="O46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*11)</f>
@@ -20368,7 +20578,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R12 R14:R39 R13 R40:R43">
+  <conditionalFormatting sqref="R6:R43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
+++ b/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
@@ -2342,8 +2342,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="81805202"/>
-        <c:axId val="78483960"/>
+        <c:axId val="84922687"/>
+        <c:axId val="43182607"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2670,11 +2670,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81805202"/>
-        <c:axId val="78483960"/>
+        <c:axId val="84922687"/>
+        <c:axId val="43182607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81805202"/>
+        <c:axId val="84922687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78483960"/>
+        <c:crossAx val="43182607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78483960"/>
+        <c:axId val="43182607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2795,7 +2795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81805202"/>
+        <c:crossAx val="84922687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,8 +3018,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="93984159"/>
-        <c:axId val="77179259"/>
+        <c:axId val="67457087"/>
+        <c:axId val="44249216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3286,11 +3286,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="93984159"/>
-        <c:axId val="77179259"/>
+        <c:axId val="67457087"/>
+        <c:axId val="44249216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93984159"/>
+        <c:axId val="67457087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77179259"/>
+        <c:crossAx val="44249216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77179259"/>
+        <c:axId val="44249216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3411,7 +3411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93984159"/>
+        <c:crossAx val="67457087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3634,8 +3634,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="17263203"/>
-        <c:axId val="9709371"/>
+        <c:axId val="18806855"/>
+        <c:axId val="47917962"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3902,11 +3902,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17263203"/>
-        <c:axId val="9709371"/>
+        <c:axId val="18806855"/>
+        <c:axId val="47917962"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17263203"/>
+        <c:axId val="18806855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9709371"/>
+        <c:crossAx val="47917962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9709371"/>
+        <c:axId val="47917962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4027,7 +4027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17263203"/>
+        <c:crossAx val="18806855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4228,8 +4228,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84076830"/>
-        <c:axId val="38060692"/>
+        <c:axId val="83714048"/>
+        <c:axId val="61147426"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4448,11 +4448,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84076830"/>
-        <c:axId val="38060692"/>
+        <c:axId val="83714048"/>
+        <c:axId val="61147426"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84076830"/>
+        <c:axId val="83714048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,7 +4486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38060692"/>
+        <c:crossAx val="61147426"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4494,7 +4494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38060692"/>
+        <c:axId val="61147426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4573,7 +4573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84076830"/>
+        <c:crossAx val="83714048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4798,8 +4798,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49211707"/>
-        <c:axId val="13972706"/>
+        <c:axId val="22899792"/>
+        <c:axId val="1875654"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5066,11 +5066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49211707"/>
-        <c:axId val="13972706"/>
+        <c:axId val="22899792"/>
+        <c:axId val="1875654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49211707"/>
+        <c:axId val="22899792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5104,7 +5104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13972706"/>
+        <c:crossAx val="1875654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5112,7 +5112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13972706"/>
+        <c:axId val="1875654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5191,7 +5191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49211707"/>
+        <c:crossAx val="22899792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5416,8 +5416,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="5163635"/>
-        <c:axId val="28625254"/>
+        <c:axId val="8492339"/>
+        <c:axId val="89252994"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5684,11 +5684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5163635"/>
-        <c:axId val="28625254"/>
+        <c:axId val="8492339"/>
+        <c:axId val="89252994"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5163635"/>
+        <c:axId val="8492339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28625254"/>
+        <c:crossAx val="89252994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5730,7 +5730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28625254"/>
+        <c:axId val="89252994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -5809,7 +5809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5163635"/>
+        <c:crossAx val="8492339"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -6035,19 +6035,19 @@
                   <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7</c:v>
+                  <c:v>8.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.4</c:v>
@@ -6058,8 +6058,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="422696"/>
-        <c:axId val="7793630"/>
+        <c:axId val="65562917"/>
+        <c:axId val="60359191"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6178,40 +6178,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>729</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>726.8</c:v>
+                  <c:v>530.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>722</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>716.2</c:v>
+                  <c:v>520.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>710.8</c:v>
+                  <c:v>514.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>706.1</c:v>
+                  <c:v>510.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>701.5</c:v>
+                  <c:v>504.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>697</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>689.5</c:v>
+                  <c:v>492.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>681.6</c:v>
+                  <c:v>485.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>671.9</c:v>
+                  <c:v>476.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>666.5</c:v>
+                  <c:v>471.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6326,37 +6326,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>729</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>662.727272727273</c:v>
+                  <c:v>484.545454545455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>596.454545454546</c:v>
+                  <c:v>436.090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530.181818181818</c:v>
+                  <c:v>387.636363636364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>463.909090909091</c:v>
+                  <c:v>339.181818181818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>397.636363636364</c:v>
+                  <c:v>290.727272727273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>331.363636363636</c:v>
+                  <c:v>242.272727272727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>265.090909090909</c:v>
+                  <c:v>193.818181818182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>198.818181818182</c:v>
+                  <c:v>145.363636363636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132.545454545455</c:v>
+                  <c:v>96.9090909090909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.2727272727274</c:v>
+                  <c:v>48.4545454545455</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6374,11 +6374,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="422696"/>
-        <c:axId val="7793630"/>
+        <c:axId val="65562917"/>
+        <c:axId val="60359191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422696"/>
+        <c:axId val="65562917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,7 +6412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7793630"/>
+        <c:crossAx val="60359191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6420,7 +6420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7793630"/>
+        <c:axId val="60359191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -6499,7 +6499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422696"/>
+        <c:crossAx val="65562917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -6568,9 +6568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>661320</xdr:colOff>
+      <xdr:colOff>660960</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6579,7 +6579,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3403800" y="2685960"/>
-        <a:ext cx="9638280" cy="4884480"/>
+        <a:ext cx="9637920" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6603,9 +6603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6614,7 +6614,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1155240" y="3543120"/>
-        <a:ext cx="9639000" cy="4884480"/>
+        <a:ext cx="9638640" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6638,9 +6638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347040</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6649,7 +6649,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="7705800"/>
-        <a:ext cx="9638280" cy="4884480"/>
+        <a:ext cx="9637920" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6673,9 +6673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6684,7 +6684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846960" y="10025640"/>
-        <a:ext cx="9637920" cy="4884480"/>
+        <a:ext cx="9637560" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6708,9 +6708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>347040</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6719,7 +6719,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="3362400"/>
-        <a:ext cx="9638280" cy="4884480"/>
+        <a:ext cx="9637920" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6743,9 +6743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>889200</xdr:colOff>
+      <xdr:colOff>888840</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6754,7 +6754,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2969280" y="5576040"/>
-        <a:ext cx="9637560" cy="4884480"/>
+        <a:ext cx="9637200" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6778,9 +6778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6789,7 +6789,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="15381000"/>
-        <a:ext cx="9638280" cy="4884480"/>
+        <a:ext cx="9637920" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17747,7 +17747,7 @@
   <dimension ref="B1:T979"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18372,33 +18372,31 @@
         <v>158</v>
       </c>
       <c r="D16" s="109" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="27" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="J16" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="108" t="str">
         <f aca="false">IF(R16=0, "NOT STARTED",IF(R16&gt;D16, "ERROR TO MUCH WORK", IF(R16=D16, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="3" t="n">
         <f aca="false">SUM(E16:O16)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>42</v>
@@ -18412,33 +18410,31 @@
         <v>158</v>
       </c>
       <c r="D17" s="109" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N17" s="27" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="J17" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="27"/>
       <c r="P17" s="108" t="str">
         <f aca="false">IF(R17=0, "NOT STARTED",IF(R17&gt;D17, "ERROR TO MUCH WORK", IF(R17=D17, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q17" s="108"/>
       <c r="R17" s="3" t="n">
         <f aca="false">SUM(E17:O17)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>48</v>
@@ -19450,23 +19446,23 @@
       </c>
       <c r="J44" s="36" t="n">
         <f aca="false">SUM(J6:J43)</f>
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K44" s="34" t="n">
         <f aca="false">SUM(K6:K43)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L44" s="34" t="n">
         <f aca="false">SUM(L6:L43)</f>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M44" s="34" t="n">
         <f aca="false">SUM(M6:M43)</f>
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="N44" s="34" t="n">
         <f aca="false">SUM(N6:N43)</f>
-        <v>9.7</v>
+        <v>8.7</v>
       </c>
       <c r="O44" s="34" t="n">
         <f aca="false">SUM(O6:O43)</f>
@@ -19480,51 +19476,51 @@
       <c r="C45" s="38"/>
       <c r="D45" s="39" t="n">
         <f aca="false">SUM(D6:D44)</f>
-        <v>729</v>
+        <v>533</v>
       </c>
       <c r="E45" s="40" t="n">
         <f aca="false">D45-SUM(E6:E43)</f>
-        <v>726.8</v>
+        <v>530.8</v>
       </c>
       <c r="F45" s="41" t="n">
         <f aca="false">E45-SUM(F6:F43)</f>
-        <v>722</v>
+        <v>526</v>
       </c>
       <c r="G45" s="41" t="n">
         <f aca="false">F45-SUM(G6:G43)</f>
-        <v>716.2</v>
+        <v>520.2</v>
       </c>
       <c r="H45" s="41" t="n">
         <f aca="false">G45-SUM(H6:H43)</f>
-        <v>710.8</v>
+        <v>514.8</v>
       </c>
       <c r="I45" s="42" t="n">
         <f aca="false">H45-SUM(I6:I43)</f>
-        <v>706.1</v>
+        <v>510.1</v>
       </c>
       <c r="J45" s="43" t="n">
         <f aca="false">I45-SUM(J6:J43)</f>
-        <v>701.5</v>
+        <v>504.5</v>
       </c>
       <c r="K45" s="43" t="n">
         <f aca="false">J45-SUM(K6:K43)</f>
-        <v>697</v>
+        <v>499</v>
       </c>
       <c r="L45" s="43" t="n">
         <f aca="false">K45-SUM(L6:L43)</f>
-        <v>689.5</v>
+        <v>492.5</v>
       </c>
       <c r="M45" s="43" t="n">
         <f aca="false">L45-SUM(M6:M43)</f>
-        <v>681.6</v>
+        <v>485.6</v>
       </c>
       <c r="N45" s="43" t="n">
         <f aca="false">M45-SUM(N6:N43)</f>
-        <v>671.9</v>
+        <v>476.9</v>
       </c>
       <c r="O45" s="43" t="n">
         <f aca="false">N45-SUM(O6:O43)</f>
-        <v>666.5</v>
+        <v>471.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19534,47 +19530,47 @@
       <c r="C46" s="46"/>
       <c r="D46" s="47" t="n">
         <f aca="false">D45</f>
-        <v>729</v>
+        <v>533</v>
       </c>
       <c r="E46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*1)</f>
-        <v>662.727272727273</v>
+        <v>484.545454545455</v>
       </c>
       <c r="F46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*2)</f>
-        <v>596.454545454546</v>
+        <v>436.090909090909</v>
       </c>
       <c r="G46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*3)</f>
-        <v>530.181818181818</v>
+        <v>387.636363636364</v>
       </c>
       <c r="H46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*4)</f>
-        <v>463.909090909091</v>
+        <v>339.181818181818</v>
       </c>
       <c r="I46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*5)</f>
-        <v>397.636363636364</v>
+        <v>290.727272727273</v>
       </c>
       <c r="J46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*6)</f>
-        <v>331.363636363636</v>
+        <v>242.272727272727</v>
       </c>
       <c r="K46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*7)</f>
-        <v>265.090909090909</v>
+        <v>193.818181818182</v>
       </c>
       <c r="L46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*8)</f>
-        <v>198.818181818182</v>
+        <v>145.363636363636</v>
       </c>
       <c r="M46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*9)</f>
-        <v>132.545454545455</v>
+        <v>96.9090909090909</v>
       </c>
       <c r="N46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*10)</f>
-        <v>66.2727272727274</v>
+        <v>48.4545454545455</v>
       </c>
       <c r="O46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*11)</f>

--- a/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
+++ b/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
@@ -2342,8 +2342,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84922687"/>
-        <c:axId val="43182607"/>
+        <c:axId val="45904282"/>
+        <c:axId val="58179986"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2670,11 +2670,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84922687"/>
-        <c:axId val="43182607"/>
+        <c:axId val="45904282"/>
+        <c:axId val="58179986"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84922687"/>
+        <c:axId val="45904282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43182607"/>
+        <c:crossAx val="58179986"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43182607"/>
+        <c:axId val="58179986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2795,7 +2795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84922687"/>
+        <c:crossAx val="45904282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,8 +3018,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="67457087"/>
-        <c:axId val="44249216"/>
+        <c:axId val="61651400"/>
+        <c:axId val="64183010"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3286,11 +3286,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67457087"/>
-        <c:axId val="44249216"/>
+        <c:axId val="61651400"/>
+        <c:axId val="64183010"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67457087"/>
+        <c:axId val="61651400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44249216"/>
+        <c:crossAx val="64183010"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44249216"/>
+        <c:axId val="64183010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3411,7 +3411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67457087"/>
+        <c:crossAx val="61651400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3634,8 +3634,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="18806855"/>
-        <c:axId val="47917962"/>
+        <c:axId val="18907583"/>
+        <c:axId val="99594375"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3902,11 +3902,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18806855"/>
-        <c:axId val="47917962"/>
+        <c:axId val="18907583"/>
+        <c:axId val="99594375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18806855"/>
+        <c:axId val="18907583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47917962"/>
+        <c:crossAx val="99594375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47917962"/>
+        <c:axId val="99594375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4027,7 +4027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18806855"/>
+        <c:crossAx val="18907583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4228,8 +4228,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="83714048"/>
-        <c:axId val="61147426"/>
+        <c:axId val="24287543"/>
+        <c:axId val="93716064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4448,11 +4448,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83714048"/>
-        <c:axId val="61147426"/>
+        <c:axId val="24287543"/>
+        <c:axId val="93716064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83714048"/>
+        <c:axId val="24287543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,7 +4486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61147426"/>
+        <c:crossAx val="93716064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4494,7 +4494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61147426"/>
+        <c:axId val="93716064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4573,7 +4573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83714048"/>
+        <c:crossAx val="24287543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4798,8 +4798,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="22899792"/>
-        <c:axId val="1875654"/>
+        <c:axId val="86259541"/>
+        <c:axId val="27688629"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5066,11 +5066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22899792"/>
-        <c:axId val="1875654"/>
+        <c:axId val="86259541"/>
+        <c:axId val="27688629"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22899792"/>
+        <c:axId val="86259541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5104,7 +5104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875654"/>
+        <c:crossAx val="27688629"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5112,7 +5112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1875654"/>
+        <c:axId val="27688629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5191,7 +5191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22899792"/>
+        <c:crossAx val="86259541"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5416,8 +5416,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="8492339"/>
-        <c:axId val="89252994"/>
+        <c:axId val="29379282"/>
+        <c:axId val="29502337"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5684,11 +5684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8492339"/>
-        <c:axId val="89252994"/>
+        <c:axId val="29379282"/>
+        <c:axId val="29502337"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8492339"/>
+        <c:axId val="29379282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89252994"/>
+        <c:crossAx val="29502337"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5730,7 +5730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89252994"/>
+        <c:axId val="29502337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -5809,7 +5809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8492339"/>
+        <c:crossAx val="29379282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -6020,34 +6020,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.4</c:v>
@@ -6058,8 +6058,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="65562917"/>
-        <c:axId val="60359191"/>
+        <c:axId val="24262863"/>
+        <c:axId val="2237282"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6178,40 +6178,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>533</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>530.8</c:v>
+                  <c:v>46.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>526</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>520.2</c:v>
+                  <c:v>39.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>514.8</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>510.1</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>504.5</c:v>
+                  <c:v>28.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>499</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>492.5</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>485.6</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>476.9</c:v>
+                  <c:v>5.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>471.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6326,37 +6326,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>533</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.545454545455</c:v>
+                  <c:v>43.1818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>436.090909090909</c:v>
+                  <c:v>38.8636363636364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.636363636364</c:v>
+                  <c:v>34.5454545454546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.181818181818</c:v>
+                  <c:v>30.2272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>290.727272727273</c:v>
+                  <c:v>25.9090909090909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>242.272727272727</c:v>
+                  <c:v>21.5909090909091</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193.818181818182</c:v>
+                  <c:v>17.2727272727273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145.363636363636</c:v>
+                  <c:v>12.9545454545455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.9090909090909</c:v>
+                  <c:v>8.63636363636363</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.4545454545455</c:v>
+                  <c:v>4.31818181818181</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6374,11 +6374,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65562917"/>
-        <c:axId val="60359191"/>
+        <c:axId val="24262863"/>
+        <c:axId val="2237282"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65562917"/>
+        <c:axId val="24262863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,7 +6412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60359191"/>
+        <c:crossAx val="2237282"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6420,7 +6420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60359191"/>
+        <c:axId val="2237282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -6499,7 +6499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65562917"/>
+        <c:crossAx val="24262863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -17746,8 +17746,8 @@
   </sheetPr>
   <dimension ref="B1:T979"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17892,32 +17892,32 @@
         <v>152</v>
       </c>
       <c r="D6" s="25" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="28" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="27" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N6" s="27" t="n">
         <v>0.5</v>
@@ -17925,12 +17925,12 @@
       <c r="O6" s="27"/>
       <c r="P6" s="54" t="str">
         <f aca="false">IF(R6=0, "NOT STARTED",IF(R6&gt;D6, "ERROR TO MUCH WORK", IF(R6=D6, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q6" s="54"/>
       <c r="R6" s="3" t="n">
         <f aca="false">SUM(E6:O6)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>42</v>
@@ -17945,32 +17945,32 @@
         <v>152</v>
       </c>
       <c r="D7" s="25" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="28" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M7" s="27" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="27" t="n">
         <v>0.5</v>
@@ -17978,12 +17978,12 @@
       <c r="O7" s="27"/>
       <c r="P7" s="54" t="str">
         <f aca="false">IF(R7=0, "NOT STARTED",IF(R7&gt;D7, "ERROR TO MUCH WORK", IF(R7=D7, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q7" s="54"/>
       <c r="R7" s="3" t="n">
         <f aca="false">SUM(E7:O7)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>48</v>
@@ -18080,25 +18080,25 @@
         <v>154</v>
       </c>
       <c r="D10" s="19" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E10" s="30" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="28" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="27" t="n">
         <v>0.5</v>
@@ -18106,21 +18106,17 @@
       <c r="L10" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="27" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="54" t="str">
         <f aca="false">IF(R10=0, "NOT STARTED",IF(R10&gt;D10, "ERROR TO MUCH WORK", IF(R10=D10, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q10" s="54"/>
       <c r="R10" s="3" t="n">
         <f aca="false">SUM(E10:O10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>42</v>
@@ -18135,25 +18131,25 @@
         <v>154</v>
       </c>
       <c r="D11" s="25" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E11" s="30" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="28" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K11" s="27" t="n">
         <v>0.5</v>
@@ -18161,21 +18157,17 @@
       <c r="L11" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="M11" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="27" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="108" t="str">
         <f aca="false">IF(R11=0, "NOT STARTED",IF(R11&gt;D11, "ERROR TO MUCH WORK", IF(R11=D11, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q11" s="108"/>
       <c r="R11" s="3" t="n">
         <f aca="false">SUM(E11:O11)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>48</v>
@@ -18524,45 +18516,41 @@
         <v>160</v>
       </c>
       <c r="D20" s="109" t="n">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G20" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="28" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J20" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K20" s="27" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N20" s="27" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="27"/>
       <c r="P20" s="108" t="str">
         <f aca="false">IF(R20=0, "NOT STARTED",IF(R20&gt;D20, "ERROR TO MUCH WORK", IF(R20=D20, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT ENOUGH WORK YET</v>
+        <v>DONE</v>
       </c>
       <c r="Q20" s="108"/>
       <c r="R20" s="3" t="n">
         <f aca="false">SUM(E20:O20)</f>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>45</v>
@@ -19426,43 +19414,43 @@
       </c>
       <c r="E44" s="33" t="n">
         <f aca="false">SUM(E6:E43)</f>
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="F44" s="34" t="n">
         <f aca="false">SUM(F6:F43)</f>
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="G44" s="34" t="n">
         <f aca="false">SUM(G6:G43)</f>
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="H44" s="34" t="n">
         <f aca="false">SUM(H6:H43)</f>
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="I44" s="35" t="n">
         <f aca="false">SUM(I6:I43)</f>
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="J44" s="36" t="n">
         <f aca="false">SUM(J6:J43)</f>
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="K44" s="34" t="n">
         <f aca="false">SUM(K6:K43)</f>
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L44" s="34" t="n">
         <f aca="false">SUM(L6:L43)</f>
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="M44" s="34" t="n">
         <f aca="false">SUM(M6:M43)</f>
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="N44" s="34" t="n">
         <f aca="false">SUM(N6:N43)</f>
-        <v>8.7</v>
+        <v>7.2</v>
       </c>
       <c r="O44" s="34" t="n">
         <f aca="false">SUM(O6:O43)</f>
@@ -19476,51 +19464,51 @@
       <c r="C45" s="38"/>
       <c r="D45" s="39" t="n">
         <f aca="false">SUM(D6:D44)</f>
-        <v>533</v>
+        <v>47.5</v>
       </c>
       <c r="E45" s="40" t="n">
         <f aca="false">D45-SUM(E6:E43)</f>
-        <v>530.8</v>
+        <v>46.1</v>
       </c>
       <c r="F45" s="41" t="n">
         <f aca="false">E45-SUM(F6:F43)</f>
-        <v>526</v>
+        <v>43.2</v>
       </c>
       <c r="G45" s="41" t="n">
         <f aca="false">F45-SUM(G6:G43)</f>
-        <v>520.2</v>
+        <v>39.3</v>
       </c>
       <c r="H45" s="41" t="n">
         <f aca="false">G45-SUM(H6:H43)</f>
-        <v>514.8</v>
+        <v>35.6</v>
       </c>
       <c r="I45" s="42" t="n">
         <f aca="false">H45-SUM(I6:I43)</f>
-        <v>510.1</v>
+        <v>32.6</v>
       </c>
       <c r="J45" s="43" t="n">
         <f aca="false">I45-SUM(J6:J43)</f>
-        <v>504.5</v>
+        <v>28.3</v>
       </c>
       <c r="K45" s="43" t="n">
         <f aca="false">J45-SUM(K6:K43)</f>
-        <v>499</v>
+        <v>23.7</v>
       </c>
       <c r="L45" s="43" t="n">
         <f aca="false">K45-SUM(L6:L43)</f>
-        <v>492.5</v>
+        <v>17.8</v>
       </c>
       <c r="M45" s="43" t="n">
         <f aca="false">L45-SUM(M6:M43)</f>
-        <v>485.6</v>
+        <v>12.6</v>
       </c>
       <c r="N45" s="43" t="n">
         <f aca="false">M45-SUM(N6:N43)</f>
-        <v>476.9</v>
+        <v>5.40000000000001</v>
       </c>
       <c r="O45" s="43" t="n">
         <f aca="false">N45-SUM(O6:O43)</f>
-        <v>471.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19530,47 +19518,47 @@
       <c r="C46" s="46"/>
       <c r="D46" s="47" t="n">
         <f aca="false">D45</f>
-        <v>533</v>
+        <v>47.5</v>
       </c>
       <c r="E46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*1)</f>
-        <v>484.545454545455</v>
+        <v>43.1818181818182</v>
       </c>
       <c r="F46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*2)</f>
-        <v>436.090909090909</v>
+        <v>38.8636363636364</v>
       </c>
       <c r="G46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*3)</f>
-        <v>387.636363636364</v>
+        <v>34.5454545454546</v>
       </c>
       <c r="H46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*4)</f>
-        <v>339.181818181818</v>
+        <v>30.2272727272727</v>
       </c>
       <c r="I46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*5)</f>
-        <v>290.727272727273</v>
+        <v>25.9090909090909</v>
       </c>
       <c r="J46" s="49" t="n">
         <f aca="false">$D$46-($D$46/11*6)</f>
-        <v>242.272727272727</v>
+        <v>21.5909090909091</v>
       </c>
       <c r="K46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*7)</f>
-        <v>193.818181818182</v>
+        <v>17.2727272727273</v>
       </c>
       <c r="L46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*8)</f>
-        <v>145.363636363636</v>
+        <v>12.9545454545455</v>
       </c>
       <c r="M46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*9)</f>
-        <v>96.9090909090909</v>
+        <v>8.63636363636363</v>
       </c>
       <c r="N46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*10)</f>
-        <v>48.4545454545455</v>
+        <v>4.31818181818181</v>
       </c>
       <c r="O46" s="48" t="n">
         <f aca="false">$D$46-($D$46/11*11)</f>

--- a/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
+++ b/SE202526/Management/Sprint7/burndown/Sprint7_Burndown.xlsx
@@ -2342,8 +2342,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="45904282"/>
-        <c:axId val="58179986"/>
+        <c:axId val="30901363"/>
+        <c:axId val="11821042"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2670,11 +2670,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45904282"/>
-        <c:axId val="58179986"/>
+        <c:axId val="30901363"/>
+        <c:axId val="11821042"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45904282"/>
+        <c:axId val="30901363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58179986"/>
+        <c:crossAx val="11821042"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,7 +2716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58179986"/>
+        <c:axId val="11821042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -2795,7 +2795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45904282"/>
+        <c:crossAx val="30901363"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,8 +3018,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61651400"/>
-        <c:axId val="64183010"/>
+        <c:axId val="97620825"/>
+        <c:axId val="37127466"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3286,11 +3286,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61651400"/>
-        <c:axId val="64183010"/>
+        <c:axId val="97620825"/>
+        <c:axId val="37127466"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61651400"/>
+        <c:axId val="97620825"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64183010"/>
+        <c:crossAx val="37127466"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64183010"/>
+        <c:axId val="37127466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -3411,7 +3411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61651400"/>
+        <c:crossAx val="97620825"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3634,8 +3634,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="18907583"/>
-        <c:axId val="99594375"/>
+        <c:axId val="94528823"/>
+        <c:axId val="12080137"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3902,11 +3902,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18907583"/>
-        <c:axId val="99594375"/>
+        <c:axId val="94528823"/>
+        <c:axId val="12080137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18907583"/>
+        <c:axId val="94528823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3940,7 +3940,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99594375"/>
+        <c:crossAx val="12080137"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3948,7 +3948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99594375"/>
+        <c:axId val="12080137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4027,7 +4027,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18907583"/>
+        <c:crossAx val="94528823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4228,8 +4228,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="24287543"/>
-        <c:axId val="93716064"/>
+        <c:axId val="37369096"/>
+        <c:axId val="33635259"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4448,11 +4448,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24287543"/>
-        <c:axId val="93716064"/>
+        <c:axId val="37369096"/>
+        <c:axId val="33635259"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24287543"/>
+        <c:axId val="37369096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4486,7 +4486,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93716064"/>
+        <c:crossAx val="33635259"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4494,7 +4494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93716064"/>
+        <c:axId val="33635259"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -4573,7 +4573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24287543"/>
+        <c:crossAx val="37369096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -4798,8 +4798,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="86259541"/>
-        <c:axId val="27688629"/>
+        <c:axId val="75728298"/>
+        <c:axId val="89167789"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5066,11 +5066,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="86259541"/>
-        <c:axId val="27688629"/>
+        <c:axId val="75728298"/>
+        <c:axId val="89167789"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86259541"/>
+        <c:axId val="75728298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5104,7 +5104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27688629"/>
+        <c:crossAx val="89167789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5112,7 +5112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27688629"/>
+        <c:axId val="89167789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -5191,7 +5191,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86259541"/>
+        <c:crossAx val="75728298"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -5416,8 +5416,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="29379282"/>
-        <c:axId val="29502337"/>
+        <c:axId val="68720617"/>
+        <c:axId val="33344421"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -5684,11 +5684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="29379282"/>
-        <c:axId val="29502337"/>
+        <c:axId val="68720617"/>
+        <c:axId val="33344421"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29379282"/>
+        <c:axId val="68720617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29502337"/>
+        <c:crossAx val="33344421"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5730,7 +5730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29502337"/>
+        <c:axId val="33344421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -5809,7 +5809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29379282"/>
+        <c:crossAx val="68720617"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -6012,7 +6012,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$44:$O$44</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6058,8 +6058,8 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="24262863"/>
-        <c:axId val="2237282"/>
+        <c:axId val="64980848"/>
+        <c:axId val="37908631"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -6173,7 +6173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$45:$O$45</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6321,7 +6321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart Sprint7'!$D$46:$O$46</c:f>
+              <c:f>'Burndown Chart Sprint7'!$D$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6374,11 +6374,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24262863"/>
-        <c:axId val="2237282"/>
+        <c:axId val="64980848"/>
+        <c:axId val="37908631"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24262863"/>
+        <c:axId val="64980848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,7 +6412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2237282"/>
+        <c:crossAx val="37908631"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6420,7 +6420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2237282"/>
+        <c:axId val="37908631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -6499,7 +6499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24262863"/>
+        <c:crossAx val="64980848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4"/>
@@ -6568,9 +6568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>660960</xdr:colOff>
+      <xdr:colOff>660600</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6579,7 +6579,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3403800" y="2685960"/>
-        <a:ext cx="9637920" cy="4884120"/>
+        <a:ext cx="9637560" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6603,9 +6603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6614,7 +6614,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1155240" y="3543120"/>
-        <a:ext cx="9638640" cy="4884120"/>
+        <a:ext cx="9638280" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6638,9 +6638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>346320</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6649,7 +6649,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="7705800"/>
-        <a:ext cx="9637920" cy="4884120"/>
+        <a:ext cx="9637560" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6673,9 +6673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6684,7 +6684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846960" y="10025640"/>
-        <a:ext cx="9637560" cy="4884120"/>
+        <a:ext cx="9637200" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6708,9 +6708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>346320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6719,7 +6719,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1489320" y="3362400"/>
-        <a:ext cx="9637920" cy="4884120"/>
+        <a:ext cx="9637560" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6743,9 +6743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>888840</xdr:colOff>
+      <xdr:colOff>888480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6754,7 +6754,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2969280" y="5576040"/>
-        <a:ext cx="9637200" cy="4884120"/>
+        <a:ext cx="9636840" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6773,14 +6773,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>583560</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:colOff>583200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6788,8 +6788,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1489320" y="15381000"/>
-        <a:ext cx="9637920" cy="4884120"/>
+        <a:off x="1489320" y="14657040"/>
+        <a:ext cx="9637560" cy="4883760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6934,7 +6934,7 @@
   </sheetPr>
   <dimension ref="B1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -8448,7 +8448,7 @@
   </sheetPr>
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9881,7 +9881,7 @@
   </sheetPr>
   <dimension ref="B1:P1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -12305,7 +12305,7 @@
   </sheetPr>
   <dimension ref="A1:P988"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15061,7 +15061,7 @@
   </sheetPr>
   <dimension ref="B1:P976"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -16583,7 +16583,7 @@
   </sheetPr>
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -17744,10 +17744,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:T979"/>
+  <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19305,266 +19305,170 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="24"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="108" t="str">
-        <f aca="false">IF(R40=0, "NOT STARTED",IF(R40&gt;D40, "ERROR TO MUCH WORK", IF(R40=D40, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="3" t="n">
-        <f aca="false">SUM(E40:O40)</f>
+      <c r="B40" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32" t="n">
         <v>0</v>
       </c>
+      <c r="E40" s="33" t="n">
+        <f aca="false">SUM(E6:E39)</f>
+        <v>1.4</v>
+      </c>
+      <c r="F40" s="34" t="n">
+        <f aca="false">SUM(F6:F39)</f>
+        <v>2.9</v>
+      </c>
+      <c r="G40" s="34" t="n">
+        <f aca="false">SUM(G6:G39)</f>
+        <v>3.9</v>
+      </c>
+      <c r="H40" s="34" t="n">
+        <f aca="false">SUM(H6:H39)</f>
+        <v>3.7</v>
+      </c>
+      <c r="I40" s="35" t="n">
+        <f aca="false">SUM(I6:I39)</f>
+        <v>3</v>
+      </c>
+      <c r="J40" s="36" t="n">
+        <f aca="false">SUM(J6:J39)</f>
+        <v>4.3</v>
+      </c>
+      <c r="K40" s="34" t="n">
+        <f aca="false">SUM(K6:K39)</f>
+        <v>4.6</v>
+      </c>
+      <c r="L40" s="34" t="n">
+        <f aca="false">SUM(L6:L39)</f>
+        <v>5.9</v>
+      </c>
+      <c r="M40" s="34" t="n">
+        <f aca="false">SUM(M6:M39)</f>
+        <v>5.2</v>
+      </c>
+      <c r="N40" s="34" t="n">
+        <f aca="false">SUM(N6:N39)</f>
+        <v>7.2</v>
+      </c>
+      <c r="O40" s="34" t="n">
+        <f aca="false">SUM(O6:O39)</f>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="108" t="str">
-        <f aca="false">IF(R41=0, "NOT STARTED",IF(R41&gt;D41, "ERROR TO MUCH WORK", IF(R41=D41, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="3" t="n">
-        <f aca="false">SUM(E41:O41)</f>
+      <c r="B41" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39" t="n">
+        <f aca="false">SUM(D6:D40)</f>
+        <v>47.5</v>
+      </c>
+      <c r="E41" s="40" t="n">
+        <f aca="false">D41-SUM(E6:E39)</f>
+        <v>46.1</v>
+      </c>
+      <c r="F41" s="41" t="n">
+        <f aca="false">E41-SUM(F6:F39)</f>
+        <v>43.2</v>
+      </c>
+      <c r="G41" s="41" t="n">
+        <f aca="false">F41-SUM(G6:G39)</f>
+        <v>39.3</v>
+      </c>
+      <c r="H41" s="41" t="n">
+        <f aca="false">G41-SUM(H6:H39)</f>
+        <v>35.6</v>
+      </c>
+      <c r="I41" s="42" t="n">
+        <f aca="false">H41-SUM(I6:I39)</f>
+        <v>32.6</v>
+      </c>
+      <c r="J41" s="43" t="n">
+        <f aca="false">I41-SUM(J6:J39)</f>
+        <v>28.3</v>
+      </c>
+      <c r="K41" s="43" t="n">
+        <f aca="false">J41-SUM(K6:K39)</f>
+        <v>23.7</v>
+      </c>
+      <c r="L41" s="43" t="n">
+        <f aca="false">K41-SUM(L6:L39)</f>
+        <v>17.8</v>
+      </c>
+      <c r="M41" s="43" t="n">
+        <f aca="false">L41-SUM(M6:M39)</f>
+        <v>12.6</v>
+      </c>
+      <c r="N41" s="43" t="n">
+        <f aca="false">M41-SUM(N6:N39)</f>
+        <v>5.40000000000001</v>
+      </c>
+      <c r="O41" s="43" t="n">
+        <f aca="false">N41-SUM(O6:O39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="24"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="108" t="str">
-        <f aca="false">IF(R42=0, "NOT STARTED",IF(R42&gt;D42, "ERROR TO MUCH WORK", IF(R42=D42, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="3" t="n">
-        <f aca="false">SUM(E42:O42)</f>
+      <c r="B42" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47" t="n">
+        <f aca="false">D41</f>
+        <v>47.5</v>
+      </c>
+      <c r="E42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*1)</f>
+        <v>43.1818181818182</v>
+      </c>
+      <c r="F42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*2)</f>
+        <v>38.8636363636364</v>
+      </c>
+      <c r="G42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*3)</f>
+        <v>34.5454545454546</v>
+      </c>
+      <c r="H42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*4)</f>
+        <v>30.2272727272727</v>
+      </c>
+      <c r="I42" s="49" t="n">
+        <f aca="false">$D$42-($D$42/11*5)</f>
+        <v>25.9090909090909</v>
+      </c>
+      <c r="J42" s="49" t="n">
+        <f aca="false">$D$42-($D$42/11*6)</f>
+        <v>21.5909090909091</v>
+      </c>
+      <c r="K42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*7)</f>
+        <v>17.2727272727273</v>
+      </c>
+      <c r="L42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*8)</f>
+        <v>12.9545454545455</v>
+      </c>
+      <c r="M42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*9)</f>
+        <v>8.63636363636363</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*10)</f>
+        <v>4.31818181818181</v>
+      </c>
+      <c r="O42" s="48" t="n">
+        <f aca="false">$D$42-($D$42/11*11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="24"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="108" t="str">
-        <f aca="false">IF(R43=0, "NOT STARTED",IF(R43&gt;D43, "ERROR TO MUCH WORK", IF(R43=D43, "DONE", "NOT ENOUGH WORK YET")))</f>
-        <v>NOT STARTED</v>
-      </c>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="3" t="n">
-        <f aca="false">SUM(E43:O43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="33" t="n">
-        <f aca="false">SUM(E6:E43)</f>
-        <v>1.4</v>
-      </c>
-      <c r="F44" s="34" t="n">
-        <f aca="false">SUM(F6:F43)</f>
-        <v>2.9</v>
-      </c>
-      <c r="G44" s="34" t="n">
-        <f aca="false">SUM(G6:G43)</f>
-        <v>3.9</v>
-      </c>
-      <c r="H44" s="34" t="n">
-        <f aca="false">SUM(H6:H43)</f>
-        <v>3.7</v>
-      </c>
-      <c r="I44" s="35" t="n">
-        <f aca="false">SUM(I6:I43)</f>
-        <v>3</v>
-      </c>
-      <c r="J44" s="36" t="n">
-        <f aca="false">SUM(J6:J43)</f>
-        <v>4.3</v>
-      </c>
-      <c r="K44" s="34" t="n">
-        <f aca="false">SUM(K6:K43)</f>
-        <v>4.6</v>
-      </c>
-      <c r="L44" s="34" t="n">
-        <f aca="false">SUM(L6:L43)</f>
-        <v>5.9</v>
-      </c>
-      <c r="M44" s="34" t="n">
-        <f aca="false">SUM(M6:M43)</f>
-        <v>5.2</v>
-      </c>
-      <c r="N44" s="34" t="n">
-        <f aca="false">SUM(N6:N43)</f>
-        <v>7.2</v>
-      </c>
-      <c r="O44" s="34" t="n">
-        <f aca="false">SUM(O6:O43)</f>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39" t="n">
-        <f aca="false">SUM(D6:D44)</f>
-        <v>47.5</v>
-      </c>
-      <c r="E45" s="40" t="n">
-        <f aca="false">D45-SUM(E6:E43)</f>
-        <v>46.1</v>
-      </c>
-      <c r="F45" s="41" t="n">
-        <f aca="false">E45-SUM(F6:F43)</f>
-        <v>43.2</v>
-      </c>
-      <c r="G45" s="41" t="n">
-        <f aca="false">F45-SUM(G6:G43)</f>
-        <v>39.3</v>
-      </c>
-      <c r="H45" s="41" t="n">
-        <f aca="false">G45-SUM(H6:H43)</f>
-        <v>35.6</v>
-      </c>
-      <c r="I45" s="42" t="n">
-        <f aca="false">H45-SUM(I6:I43)</f>
-        <v>32.6</v>
-      </c>
-      <c r="J45" s="43" t="n">
-        <f aca="false">I45-SUM(J6:J43)</f>
-        <v>28.3</v>
-      </c>
-      <c r="K45" s="43" t="n">
-        <f aca="false">J45-SUM(K6:K43)</f>
-        <v>23.7</v>
-      </c>
-      <c r="L45" s="43" t="n">
-        <f aca="false">K45-SUM(L6:L43)</f>
-        <v>17.8</v>
-      </c>
-      <c r="M45" s="43" t="n">
-        <f aca="false">L45-SUM(M6:M43)</f>
-        <v>12.6</v>
-      </c>
-      <c r="N45" s="43" t="n">
-        <f aca="false">M45-SUM(N6:N43)</f>
-        <v>5.40000000000001</v>
-      </c>
-      <c r="O45" s="43" t="n">
-        <f aca="false">N45-SUM(O6:O43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47" t="n">
-        <f aca="false">D45</f>
-        <v>47.5</v>
-      </c>
-      <c r="E46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*1)</f>
-        <v>43.1818181818182</v>
-      </c>
-      <c r="F46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*2)</f>
-        <v>38.8636363636364</v>
-      </c>
-      <c r="G46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*3)</f>
-        <v>34.5454545454546</v>
-      </c>
-      <c r="H46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*4)</f>
-        <v>30.2272727272727</v>
-      </c>
-      <c r="I46" s="49" t="n">
-        <f aca="false">$D$46-($D$46/11*5)</f>
-        <v>25.9090909090909</v>
-      </c>
-      <c r="J46" s="49" t="n">
-        <f aca="false">$D$46-($D$46/11*6)</f>
-        <v>21.5909090909091</v>
-      </c>
-      <c r="K46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*7)</f>
-        <v>17.2727272727273</v>
-      </c>
-      <c r="L46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*8)</f>
-        <v>12.9545454545455</v>
-      </c>
-      <c r="M46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*9)</f>
-        <v>8.63636363636363</v>
-      </c>
-      <c r="N46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*10)</f>
-        <v>4.31818181818181</v>
-      </c>
-      <c r="O46" s="48" t="n">
-        <f aca="false">$D$46-($D$46/11*11)</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19734,10 +19638,10 @@
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -20494,12 +20398,12 @@
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="41">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="B4:B5"/>
@@ -20538,20 +20442,16 @@
     <mergeCell ref="P37:Q37"/>
     <mergeCell ref="P38:Q38"/>
     <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
-  <conditionalFormatting sqref="P6:P12 P13:P39 P40:P43">
+  <conditionalFormatting sqref="P6:P39">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"DONE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q12 P13:Q39 P40:Q43">
+  <conditionalFormatting sqref="P6:Q39">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"NOT ENOUGH WORK YET"</formula>
     </cfRule>
@@ -20562,7 +20462,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R43">
+  <conditionalFormatting sqref="R6:R39">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
